--- a/tests/test1/d10/N, 0.2.xlsx
+++ b/tests/test1/d10/N, 0.2.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000320600000009108</v>
+        <v>0.0003181999999952723</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002900000000067848</v>
+        <v>0.001513900000006174</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0006879999999966913</v>
+        <v>0.0003192000000069584</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003125000000068212</v>
+        <v>0.0002903999999972484</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.000302299999987099</v>
+        <v>0.0002896000000021104</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003399000000001706</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003100000000131331</v>
+        <v>0.0003628999999989446</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002941000000049598</v>
+        <v>0.000507100000007199</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002874000000048227</v>
+        <v>0.0003272000000009712</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003313999999932093</v>
+        <v>0.0003305999999980713</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.000335999999990122</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0006668999999988046</v>
+        <v>0.0003259000000070955</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003590000000031068</v>
+        <v>0.0003594999999876336</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0007066000000008898</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.003026900000008936</v>
+        <v>0.0003117999999915355</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003104000000035967</v>
+        <v>0.0003209999999995716</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005021000000056119</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003229000000004589</v>
+        <v>0.0003030999999964479</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0004641000000020767</v>
+        <v>0.0003191999999927475</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003293999999982589</v>
+        <v>0.0002989000000042097</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003059000000007472</v>
+        <v>0.0003042999999962603</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0003233999999991966</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0009249999999951797</v>
+        <v>0.0003031000000106587</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.000290200000009122</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002939999999966858</v>
+        <v>0.000320500000000834</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.0003092000000037842</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.000327100000006908</v>
+        <v>0.000298299999997198</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003381999999874097</v>
+        <v>0.0003264000000058331</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0003791000000035183</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.000332100000008495</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.0003659000000055812</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002968999999950483</v>
+        <v>0.0005999000000116439</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002910000000042601</v>
+        <v>0.0003247000000072831</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0009011000000072045</v>
+        <v>0.0002942999999930862</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003060999999888736</v>
+        <v>0.0002979000000067344</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.0003156999999873733</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002877999999952863</v>
+        <v>0.0002911999999923864</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003062000000113585</v>
+        <v>0.000285899999994399</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003008999999991602</v>
+        <v>0.0003259000000070955</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0002979000000067344</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003150999999945725</v>
+        <v>0.0002879000000035603</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0007959999999940237</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002982000000031348</v>
+        <v>0.0003133999999960224</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0008442000000030703</v>
+        <v>0.000294999999994161</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003173000000060711</v>
+        <v>0.0002884000000022979</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002929000000051474</v>
+        <v>0.0003248999999954094</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002977000000043972</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002912000000065973</v>
+        <v>0.000344299999994746</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003226000000040585</v>
+        <v>0.0002989000000042097</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000335400000011532</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0004385000000013406</v>
+        <v>0.0006084999999984575</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.000319700000005696</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.001272400000004836</v>
+        <v>0.000293299999995611</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003072999999886861</v>
+        <v>0.0003030000000023847</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.0003224000000017213</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002962000000081844</v>
+        <v>0.0002957999999892991</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003139000000089709</v>
+        <v>0.000429800000006253</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003178000000048087</v>
+        <v>0.0003256999999905474</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.0002922000000040725</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003174000000001342</v>
+        <v>0.0003057999999924732</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.0007977000000067846</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003497000000010075</v>
+        <v>0.0003152000000028465</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.001024999999998499</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.000325399999994147</v>
+        <v>0.000312999999991348</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.0003219000000029837</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002951000000024351</v>
+        <v>0.0002975999999961232</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003278000000079828</v>
+        <v>0.0003038999999915859</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002946000000036975</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0003019999999906986</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.0002903000000031852</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002867000000037478</v>
+        <v>0.0006263000000075181</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.000311500000009346</v>
+        <v>0.0003248000000013462</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0007026999999908412</v>
+        <v>0.0003040999999939231</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0003020000000049095</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002877000000012231</v>
+        <v>0.0003185000000058835</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002920999999957985</v>
+        <v>0.0003134000000102333</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003109999999963975</v>
+        <v>0.0002995000000112213</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002838999999994485</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003001000000040221</v>
+        <v>0.0003157000000015842</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.0002960999999999103</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002985999999935984</v>
+        <v>0.0007664000000033866</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0003884000000056176</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003160999999920477</v>
+        <v>0.0002947999999918238</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002913999999947237</v>
+        <v>0.0003037999999975227</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002929000000051474</v>
+        <v>0.0003283000000067204</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002936000000062222</v>
+        <v>0.0002881999999999607</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.000307400000011171</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002919000000076721</v>
+        <v>0.0003237999999896601</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003020000000049095</v>
+        <v>0.0003152999999969097</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000309699999988311</v>
+        <v>0.000293299999995611</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002864999999871998</v>
+        <v>0.0005693000000093207</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002884000000022979</v>
+        <v>0.0003145999999958349</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003202000000044336</v>
+        <v>0.0003035999999951855</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003128000000032216</v>
+        <v>0.0002939000000026226</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000407700000010891</v>
+        <v>0.0003133000000019592</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0005823999999989837</v>
+        <v>0.0002897000000103844</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003016999999942982</v>
+        <v>0.0002886000000046351</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d10/N, 0.2.xlsx
+++ b/tests/test1/d10/N, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003181999999952723</v>
+        <v>0.0003241000000002714</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.001513900000006174</v>
+        <v>0.0003070999999863488</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0002956000000153836</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002903999999972484</v>
+        <v>0.0003407000000095195</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002896000000021104</v>
+        <v>0.0003274000000033084</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003399000000001706</v>
+        <v>0.0002883999999880871</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003628999999989446</v>
+        <v>0.0003072999999744752</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.000507100000007199</v>
+        <v>0.0003293000000041957</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003272000000009712</v>
+        <v>0.0002977999999984604</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003305999999980713</v>
+        <v>0.0003051000000198201</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.000335999999990122</v>
+        <v>0.0006410999999957312</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003259000000070955</v>
+        <v>0.0003298999999969965</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003594999999876336</v>
+        <v>0.0005658999999980097</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0007066000000008898</v>
+        <v>0.000487300000003188</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003117999999915355</v>
+        <v>0.00032630000001177</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.000316400000002659</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.0003212000000019088</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003030999999964479</v>
+        <v>0.0003766999999754717</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003191999999927475</v>
+        <v>0.0003253000000142947</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0002989000000042097</v>
+        <v>0.0003056999999841992</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003042999999962603</v>
+        <v>0.0003260000000011587</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003233999999991966</v>
+        <v>0.0002904000000114593</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003031000000106587</v>
+        <v>0.0003069999999922857</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000290200000009122</v>
+        <v>0.0003130000000055588</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.000320500000000834</v>
+        <v>0.0003330000000119071</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003092000000037842</v>
+        <v>0.0003015000000061718</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.000298299999997198</v>
+        <v>0.0003135000000042965</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003264000000058331</v>
+        <v>0.0003828999999768712</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0002917000000195458</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003791000000035183</v>
+        <v>0.0003237999999896601</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.000332100000008495</v>
+        <v>0.0002941000000191707</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003659000000055812</v>
+        <v>0.0003134000000102333</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0005999000000116439</v>
+        <v>0.0005874000000005708</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003247000000072831</v>
+        <v>0.0003161999999861109</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002942999999930862</v>
+        <v>0.0003402000000107819</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002979000000067344</v>
+        <v>0.0003253000000142947</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003156999999873733</v>
+        <v>0.000319000000018832</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002911999999923864</v>
+        <v>0.0002980000000150085</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.0003010000000074342</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003259000000070955</v>
+        <v>0.0003234999999790489</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002979000000067344</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002879000000035603</v>
+        <v>0.0003047000000151456</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0007959999999940237</v>
+        <v>0.001456399999995028</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003133999999960224</v>
+        <v>0.0003229000000146698</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.000294999999994161</v>
+        <v>0.0003077999999732128</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002884000000022979</v>
+        <v>0.0003089999999872362</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003248999999954094</v>
+        <v>0.0003397999999776857</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0002939000000026226</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.000344299999994746</v>
+        <v>0.0003528000000017073</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002989000000042097</v>
+        <v>0.0003074999999910233</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0004597000000217122</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0006084999999984575</v>
+        <v>0.0003067000000100961</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000319700000005696</v>
+        <v>0.0003314999999872725</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.000293299999995611</v>
+        <v>0.0002915999999970609</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003224000000017213</v>
+        <v>0.0003727999999796339</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002957999999892991</v>
+        <v>0.0003049999999973352</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.000429800000006253</v>
+        <v>0.0002961000000141212</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003256999999905474</v>
+        <v>0.000297399999993786</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.0003213999999900352</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003057999999924732</v>
+        <v>0.0002896999999961736</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0007977000000067846</v>
+        <v>0.0002929999999992106</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003152000000028465</v>
+        <v>0.0003213999999900352</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002915000000029977</v>
+        <v>0.0003051999999854615</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.000312999999991348</v>
+        <v>0.0002948000000060347</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003219000000029837</v>
+        <v>0.0008974999999793454</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.000314800000012383</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003038999999915859</v>
+        <v>0.0002917999999851872</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003019999999906986</v>
+        <v>0.0003361999999924592</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002903000000031852</v>
+        <v>0.0002956000000153836</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0006263000000075181</v>
+        <v>0.0003043000000104712</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0003303000000016709</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003040999999939231</v>
+        <v>0.0002945999999894866</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003020000000049095</v>
+        <v>0.0003090000000156579</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003185000000058835</v>
+        <v>0.0003286999999829732</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003134000000102333</v>
+        <v>0.0003329999999834854</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002995000000112213</v>
+        <v>0.0002847000000087974</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.0003183999999976095</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003157000000015842</v>
+        <v>0.0003193000000010215</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0003075999999850865</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0007664000000033866</v>
+        <v>0.0002909000000101969</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003884000000056176</v>
+        <v>0.000378100000006043</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002947999999918238</v>
+        <v>0.0003130000000055588</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.000299300000023095</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003283000000067204</v>
+        <v>0.0003067000000100961</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.000309799999996585</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0002829000000019732</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003237999999896601</v>
+        <v>0.0003051999999854615</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003152999999969097</v>
+        <v>0.0003184000000260312</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000293299999995611</v>
+        <v>0.0002932999999814001</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0005693000000093207</v>
+        <v>0.0003106000000059339</v>
       </c>
     </row>
     <row r="96">
@@ -5420,7 +5420,7 @@
         <v>359.8513093568973</v>
       </c>
       <c r="F96" t="n">
-        <v>9.997991702741874</v>
+        <v>9.997991702741876</v>
       </c>
       <c r="G96" t="n">
         <v>129.2008636792619</v>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003145999999958349</v>
+        <v>0.0003216000000065833</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003035999999951855</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002939000000026226</v>
+        <v>0.0003196999999772743</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.0002870000000143591</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002897000000103844</v>
+        <v>0.0003269999999986339</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002886000000046351</v>
+        <v>0.000307500000019445</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d10/N, 0.2.xlsx
+++ b/tests/test1/d10/N, 0.2.xlsx
@@ -532,13 +532,13 @@
         <v>359.6471895308065</v>
       </c>
       <c r="F2" t="n">
-        <v>10.14130971842098</v>
+        <v>10.14130971841711</v>
       </c>
       <c r="G2" t="n">
-        <v>98.47969513567485</v>
+        <v>98.47969513567175</v>
       </c>
       <c r="H2" t="n">
-        <v>11.9888353138036</v>
+        <v>11.98883531379779</v>
       </c>
       <c r="I2" t="n">
         <v>70.56128143157282</v>
@@ -547,16 +547,16 @@
         <v>15.80711097780685</v>
       </c>
       <c r="K2" t="n">
-        <v>70.59271188920462</v>
+        <v>70.5927118892036</v>
       </c>
       <c r="L2" t="n">
-        <v>16.26129853426233</v>
+        <v>16.26129853425527</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04856109551610768</v>
+        <v>0.04856109551615696</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1511699605801364</v>
+        <v>0.1511699605779585</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003241000000002714</v>
+        <v>0.0002402000000003568</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.6751309272673</v>
       </c>
       <c r="F3" t="n">
-        <v>9.892625645969307</v>
+        <v>9.892625645970496</v>
       </c>
       <c r="G3" t="n">
-        <v>74.56157082913494</v>
+        <v>74.56157082913612</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74012700182131</v>
+        <v>11.74012700182314</v>
       </c>
       <c r="I3" t="n">
         <v>53.17592866838513</v>
@@ -599,16 +599,16 @@
         <v>18.32782196423818</v>
       </c>
       <c r="K3" t="n">
-        <v>53.11568595016706</v>
+        <v>53.11568595016745</v>
       </c>
       <c r="L3" t="n">
-        <v>18.37118438650463</v>
+        <v>18.37118438650728</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04946171571320385</v>
+        <v>0.04946171571318376</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05222535879107055</v>
+        <v>0.05222535879158256</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003070999999863488</v>
+        <v>0.0001922000000007529</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.08335156948109022</v>
       </c>
       <c r="F4" t="n">
-        <v>9.964463047767941</v>
+        <v>9.964463047768399</v>
       </c>
       <c r="G4" t="n">
-        <v>79.66035004945442</v>
+        <v>79.66035004945623</v>
       </c>
       <c r="H4" t="n">
-        <v>3.208323970734697</v>
+        <v>3.20832397073495</v>
       </c>
       <c r="I4" t="n">
         <v>31.7678424560353</v>
@@ -651,16 +651,16 @@
         <v>9.618122158119826</v>
       </c>
       <c r="K4" t="n">
-        <v>31.73801361710103</v>
+        <v>31.73801361710144</v>
       </c>
       <c r="L4" t="n">
-        <v>9.452621010956273</v>
+        <v>9.452621010956776</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04269331093329685</v>
+        <v>0.04269331093329314</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1432780276559629</v>
+        <v>0.14327802765563</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002956000000153836</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.6422743053139</v>
       </c>
       <c r="F5" t="n">
-        <v>10.05984494662116</v>
+        <v>10.05984494662018</v>
       </c>
       <c r="G5" t="n">
-        <v>98.71258182755695</v>
+        <v>98.71258182755622</v>
       </c>
       <c r="H5" t="n">
-        <v>11.78189785018103</v>
+        <v>11.78189785017956</v>
       </c>
       <c r="I5" t="n">
         <v>70.66253786388728</v>
@@ -703,16 +703,16 @@
         <v>15.67687823027242</v>
       </c>
       <c r="K5" t="n">
-        <v>70.63324259115829</v>
+        <v>70.63324259115807</v>
       </c>
       <c r="L5" t="n">
-        <v>15.98742165008956</v>
+        <v>15.98742165008776</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05660502195951969</v>
+        <v>0.05660502195953753</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1128928899622413</v>
+        <v>0.1128928899618046</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003407000000095195</v>
+        <v>0.0004371000000009673</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9898876585714</v>
       </c>
       <c r="F6" t="n">
-        <v>9.973260190398094</v>
+        <v>9.973260190387057</v>
       </c>
       <c r="G6" t="n">
-        <v>174.081782361284</v>
+        <v>174.0817823612951</v>
       </c>
       <c r="H6" t="n">
-        <v>9.531928235575572</v>
+        <v>9.531928235561791</v>
       </c>
       <c r="I6" t="n">
         <v>149.7044734839228</v>
@@ -755,16 +755,16 @@
         <v>4.673171010711503</v>
       </c>
       <c r="K6" t="n">
-        <v>149.7135690724657</v>
+        <v>149.7135690724751</v>
       </c>
       <c r="L6" t="n">
-        <v>4.655913343624262</v>
+        <v>4.655913343617815</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03797382452401849</v>
+        <v>0.03797382452417267</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01794837060387983</v>
+        <v>0.01794837061241091</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003274000000033084</v>
+        <v>0.0001939000000010793</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.911754502623</v>
       </c>
       <c r="F7" t="n">
-        <v>9.905395260573973</v>
+        <v>9.905395260575123</v>
       </c>
       <c r="G7" t="n">
-        <v>39.83863910469768</v>
+        <v>39.83863910469874</v>
       </c>
       <c r="H7" t="n">
-        <v>13.40208303630226</v>
+        <v>13.40208303630448</v>
       </c>
       <c r="I7" t="n">
         <v>30.28257116656484</v>
@@ -807,16 +807,16 @@
         <v>22.87529985576693</v>
       </c>
       <c r="K7" t="n">
-        <v>30.26208608811473</v>
+        <v>30.26208608811512</v>
       </c>
       <c r="L7" t="n">
-        <v>22.7362868443493</v>
+        <v>22.73628684435286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03926686073679521</v>
+        <v>0.03926686073678182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02693482369529351</v>
+        <v>0.02693482369449669</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002883999999880871</v>
+        <v>0.0001878999999984643</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.0623567346975076</v>
       </c>
       <c r="F8" t="n">
-        <v>9.773589124872172</v>
+        <v>9.773589124859871</v>
       </c>
       <c r="G8" t="n">
-        <v>161.2348871925288</v>
+        <v>161.2348871925463</v>
       </c>
       <c r="H8" t="n">
-        <v>6.74740527160869</v>
+        <v>6.747405271596133</v>
       </c>
       <c r="I8" t="n">
         <v>97.61618025069936</v>
@@ -859,16 +859,16 @@
         <v>3.973338297383755</v>
       </c>
       <c r="K8" t="n">
-        <v>97.66167306370841</v>
+        <v>97.66167306370545</v>
       </c>
       <c r="L8" t="n">
-        <v>3.819873650090171</v>
+        <v>3.819873650082876</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03833985001771781</v>
+        <v>0.0383398500178067</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1733552630282511</v>
+        <v>0.1733552630355051</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003072999999744752</v>
+        <v>0.0001831000000009908</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.66189485924</v>
       </c>
       <c r="F9" t="n">
-        <v>9.506540259678024</v>
+        <v>9.506540259677962</v>
       </c>
       <c r="G9" t="n">
-        <v>13.44316930717835</v>
+        <v>13.44316930717827</v>
       </c>
       <c r="H9" t="n">
-        <v>12.79662729134911</v>
+        <v>12.79662729134893</v>
       </c>
       <c r="I9" t="n">
         <v>12.15137765332865</v>
@@ -911,16 +911,16 @@
         <v>22.28974380606835</v>
       </c>
       <c r="K9" t="n">
-        <v>12.11354352931722</v>
+        <v>12.11354352931718</v>
       </c>
       <c r="L9" t="n">
-        <v>22.32226222816682</v>
+        <v>22.32226222816655</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04926436622271001</v>
+        <v>0.04926436622271192</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1077167609685944</v>
+        <v>0.1077167609685478</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003293000000041957</v>
+        <v>0.0001940999999998638</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.981759056676</v>
       </c>
       <c r="F10" t="n">
-        <v>9.867296601824988</v>
+        <v>9.867296601824147</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2357068765987</v>
+        <v>157.235706876599</v>
       </c>
       <c r="H10" t="n">
-        <v>14.39262741937922</v>
+        <v>14.39262741937775</v>
       </c>
       <c r="I10" t="n">
         <v>137.8318815863209</v>
@@ -963,16 +963,16 @@
         <v>11.86534188679525</v>
       </c>
       <c r="K10" t="n">
-        <v>137.8568318736041</v>
+        <v>137.8568318736043</v>
       </c>
       <c r="L10" t="n">
-        <v>11.69955320723209</v>
+        <v>11.69955320723102</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04469523591463696</v>
+        <v>0.04469523591465053</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06928460709576365</v>
+        <v>0.0692846070962348</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0002390999999999366</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9997782890575</v>
       </c>
       <c r="F11" t="n">
-        <v>10.01409351910299</v>
+        <v>10.01409351910313</v>
       </c>
       <c r="G11" t="n">
         <v>1.755992399307212</v>
       </c>
       <c r="H11" t="n">
-        <v>8.842561731248059</v>
+        <v>8.84256173124786</v>
       </c>
       <c r="I11" t="n">
         <v>4.782971926670573</v>
@@ -1018,13 +1018,13 @@
         <v>4.748637294072358</v>
       </c>
       <c r="L11" t="n">
-        <v>18.0658335530901</v>
+        <v>18.06583355309</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04218265918395062</v>
+        <v>0.04218265918395078</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07971390456568199</v>
+        <v>0.07971390456574619</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003051000000198201</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.7336826991741</v>
       </c>
       <c r="F12" t="n">
-        <v>10.05250338837841</v>
+        <v>10.05250338837868</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4756414467281</v>
+        <v>135.475641446725</v>
       </c>
       <c r="H12" t="n">
-        <v>3.293356029045</v>
+        <v>3.293356029045148</v>
       </c>
       <c r="I12" t="n">
         <v>40.03006317522596</v>
@@ -1067,16 +1067,16 @@
         <v>5.809547132347129</v>
       </c>
       <c r="K12" t="n">
-        <v>40.14254447800015</v>
+        <v>40.14254447800037</v>
       </c>
       <c r="L12" t="n">
-        <v>6.041556534918923</v>
+        <v>6.041556534919326</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04296019376297372</v>
+        <v>0.04296019376297367</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2128442703376368</v>
+        <v>0.2128442703379929</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0006410999999957312</v>
+        <v>0.0001929000000000514</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.650109051739</v>
       </c>
       <c r="F13" t="n">
-        <v>9.709786667987924</v>
+        <v>9.709786667988105</v>
       </c>
       <c r="G13" t="n">
-        <v>30.07436986176816</v>
+        <v>30.07436986176982</v>
       </c>
       <c r="H13" t="n">
-        <v>3.710427603459674</v>
+        <v>3.710427603459473</v>
       </c>
       <c r="I13" t="n">
         <v>16.97012183948808</v>
@@ -1119,16 +1119,16 @@
         <v>11.14346017967418</v>
       </c>
       <c r="K13" t="n">
-        <v>16.97983175519096</v>
+        <v>16.97983175519105</v>
       </c>
       <c r="L13" t="n">
-        <v>11.44526617218523</v>
+        <v>11.44526617218514</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05257613285859657</v>
+        <v>0.05257613285859619</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4754807621751456</v>
+        <v>0.4754807621749562</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.0001902000000004733</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.905402833702</v>
       </c>
       <c r="F14" t="n">
-        <v>9.90951132257956</v>
+        <v>9.909511322578766</v>
       </c>
       <c r="G14" t="n">
-        <v>27.59790483592009</v>
+        <v>27.59790483591908</v>
       </c>
       <c r="H14" t="n">
-        <v>12.00626636023054</v>
+        <v>12.0062663602293</v>
       </c>
       <c r="I14" t="n">
         <v>21.32604566380087</v>
@@ -1171,16 +1171,16 @@
         <v>21.47093508922593</v>
       </c>
       <c r="K14" t="n">
-        <v>21.31727738043261</v>
+        <v>21.31727738043228</v>
       </c>
       <c r="L14" t="n">
-        <v>21.53474677107844</v>
+        <v>21.53474677107624</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04178933985694326</v>
+        <v>0.04178933985695224</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03737495889116584</v>
+        <v>0.03737495889083743</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005658999999980097</v>
+        <v>0.0002601999999995996</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.1424781324101231</v>
       </c>
       <c r="F15" t="n">
-        <v>9.780644625380493</v>
+        <v>9.780644625378823</v>
       </c>
       <c r="G15" t="n">
-        <v>140.831133448132</v>
+        <v>140.8311334481338</v>
       </c>
       <c r="H15" t="n">
-        <v>5.622467236500304</v>
+        <v>5.622467236498747</v>
       </c>
       <c r="I15" t="n">
         <v>70.55697937574554</v>
@@ -1223,16 +1223,16 @@
         <v>6.028251123835125</v>
       </c>
       <c r="K15" t="n">
-        <v>70.48815127068372</v>
+        <v>70.48815127068258</v>
       </c>
       <c r="L15" t="n">
-        <v>5.788638307046098</v>
+        <v>5.788638307044706</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03740383658167121</v>
+        <v>0.03740383658168989</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2020110740339629</v>
+        <v>0.2020110740353413</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.000487300000003188</v>
+        <v>0.0002502999999993705</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.6897321777494</v>
       </c>
       <c r="F16" t="n">
-        <v>9.94152162475933</v>
+        <v>9.941521624759888</v>
       </c>
       <c r="G16" t="n">
-        <v>92.03291601272436</v>
+        <v>92.03291601272451</v>
       </c>
       <c r="H16" t="n">
-        <v>12.4057325264506</v>
+        <v>12.40573252645158</v>
       </c>
       <c r="I16" t="n">
         <v>67.01959217131787</v>
@@ -1275,16 +1275,16 @@
         <v>17.25965100693092</v>
       </c>
       <c r="K16" t="n">
-        <v>66.97627682231625</v>
+        <v>66.97627682231635</v>
       </c>
       <c r="L16" t="n">
-        <v>17.37844333858816</v>
+        <v>17.37844333858942</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05330090361737</v>
+        <v>0.05330090361735657</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06023448689777601</v>
+        <v>0.06023448689807256</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.00032630000001177</v>
+        <v>0.0002372000000008256</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.06246569630870719</v>
       </c>
       <c r="F17" t="n">
-        <v>9.877867422750338</v>
+        <v>9.877867422749816</v>
       </c>
       <c r="G17" t="n">
-        <v>153.3618207863897</v>
+        <v>153.3618207863907</v>
       </c>
       <c r="H17" t="n">
-        <v>5.044358944269564</v>
+        <v>5.044358944269133</v>
       </c>
       <c r="I17" t="n">
         <v>64.66687573308144</v>
@@ -1327,16 +1327,16 @@
         <v>4.419793767587765</v>
       </c>
       <c r="K17" t="n">
-        <v>64.58561324292087</v>
+        <v>64.58561324292029</v>
       </c>
       <c r="L17" t="n">
-        <v>4.312554903430533</v>
+        <v>4.312554903430184</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04086161727812619</v>
+        <v>0.04086161727813425</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1248566746407777</v>
+        <v>0.1248566746412931</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.000316400000002659</v>
+        <v>0.0002046999999993915</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9744102557732</v>
       </c>
       <c r="F18" t="n">
-        <v>9.845040997146198</v>
+        <v>9.845040997146215</v>
       </c>
       <c r="G18" t="n">
-        <v>39.97131427329981</v>
+        <v>39.97131427329973</v>
       </c>
       <c r="H18" t="n">
-        <v>9.110419354715253</v>
+        <v>9.110419354715336</v>
       </c>
       <c r="I18" t="n">
         <v>27.73953336539376</v>
@@ -1382,13 +1382,13 @@
         <v>27.68645556725797</v>
       </c>
       <c r="L18" t="n">
-        <v>17.62497645313358</v>
+        <v>17.6249764531337</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03450512148171702</v>
+        <v>0.03450512148171662</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09425373854014366</v>
+        <v>0.0942537385401124</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9447468219957</v>
       </c>
       <c r="F19" t="n">
-        <v>9.880241998245427</v>
+        <v>9.880241998245985</v>
       </c>
       <c r="G19" t="n">
-        <v>52.7443509193681</v>
+        <v>52.74435091936877</v>
       </c>
       <c r="H19" t="n">
-        <v>9.2994167888832</v>
+        <v>9.29941678888396</v>
       </c>
       <c r="I19" t="n">
         <v>35.67338189562808</v>
@@ -1431,16 +1431,16 @@
         <v>17.4087621630154</v>
       </c>
       <c r="K19" t="n">
-        <v>35.61668144354277</v>
+        <v>35.61668144354299</v>
       </c>
       <c r="L19" t="n">
-        <v>17.24550273372723</v>
+        <v>17.24550273372851</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04168758101239516</v>
+        <v>0.0416875810123901</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05523732085064396</v>
+        <v>0.05523732085024403</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003766999999754717</v>
+        <v>0.0002439000000009628</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9841143112387</v>
       </c>
       <c r="F20" t="n">
-        <v>9.828049865985619</v>
+        <v>9.82804986598477</v>
       </c>
       <c r="G20" t="n">
-        <v>117.0104692822029</v>
+        <v>117.0104692822024</v>
       </c>
       <c r="H20" t="n">
-        <v>8.851247008857925</v>
+        <v>8.851247008856861</v>
       </c>
       <c r="I20" t="n">
         <v>77.36702495454749</v>
@@ -1483,16 +1483,16 @@
         <v>11.12685015605182</v>
       </c>
       <c r="K20" t="n">
-        <v>77.34014580162936</v>
+        <v>77.34014580162908</v>
       </c>
       <c r="L20" t="n">
-        <v>10.89555967748876</v>
+        <v>10.89555967748764</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04182936639864245</v>
+        <v>0.04182936639864954</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1018553309496364</v>
+        <v>0.1018553309501791</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003253000000142947</v>
+        <v>0.0001865999999992596</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9557993474635</v>
       </c>
       <c r="F21" t="n">
-        <v>9.833273079624959</v>
+        <v>9.833273079625155</v>
       </c>
       <c r="G21" t="n">
-        <v>17.3738613447352</v>
+        <v>17.37386134473545</v>
       </c>
       <c r="H21" t="n">
-        <v>12.0576643338913</v>
+        <v>12.05766433389167</v>
       </c>
       <c r="I21" t="n">
         <v>14.65846372863805</v>
@@ -1535,16 +1535,16 @@
         <v>21.98288036784542</v>
       </c>
       <c r="K21" t="n">
-        <v>14.61682512578562</v>
+        <v>14.61682512578571</v>
       </c>
       <c r="L21" t="n">
-        <v>21.72923606336341</v>
+        <v>21.72923606336403</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03952267680113387</v>
+        <v>0.0395226768011312</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05012642914661432</v>
+        <v>0.05012642914646445</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003056999999841992</v>
+        <v>0.0001881000000008015</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.8232213774765</v>
       </c>
       <c r="F22" t="n">
-        <v>9.753616424171492</v>
+        <v>9.753616424167225</v>
       </c>
       <c r="G22" t="n">
-        <v>105.5384595926481</v>
+        <v>105.5384595926453</v>
       </c>
       <c r="H22" t="n">
-        <v>13.43170003279492</v>
+        <v>13.4317000327876</v>
       </c>
       <c r="I22" t="n">
         <v>80.46804950751098</v>
@@ -1587,16 +1587,16 @@
         <v>17.3070565800005</v>
       </c>
       <c r="K22" t="n">
-        <v>80.39992354874869</v>
+        <v>80.39992354874786</v>
       </c>
       <c r="L22" t="n">
-        <v>16.90605566924133</v>
+        <v>16.90605566923301</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04442467774625947</v>
+        <v>0.04442467774632011</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1256487866004297</v>
+        <v>0.1256487866028357</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003260000000011587</v>
+        <v>0.0002153000000006955</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01039284990110188</v>
       </c>
       <c r="F23" t="n">
-        <v>10.05058927882495</v>
+        <v>10.05058927882487</v>
       </c>
       <c r="G23" t="n">
-        <v>8.854089687563604</v>
+        <v>8.854089687563501</v>
       </c>
       <c r="H23" t="n">
-        <v>6.408949178622514</v>
+        <v>6.408949178622671</v>
       </c>
       <c r="I23" t="n">
         <v>8.886792062587165</v>
@@ -1642,13 +1642,13 @@
         <v>8.906959384592408</v>
       </c>
       <c r="L23" t="n">
-        <v>15.21681767053362</v>
+        <v>15.21681767053373</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04087758509353937</v>
+        <v>0.04087758509353919</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03288392229795719</v>
+        <v>0.03288392229788155</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002904000000114593</v>
+        <v>0.0002835999999994954</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.01838998397303894</v>
       </c>
       <c r="F24" t="n">
-        <v>9.990342627301452</v>
+        <v>9.990342627302512</v>
       </c>
       <c r="G24" t="n">
-        <v>37.65054832272869</v>
+        <v>37.65054832273015</v>
       </c>
       <c r="H24" t="n">
-        <v>8.644698823729394</v>
+        <v>8.64469882373084</v>
       </c>
       <c r="I24" t="n">
         <v>25.73745290239647</v>
@@ -1691,16 +1691,16 @@
         <v>17.47349577797121</v>
       </c>
       <c r="K24" t="n">
-        <v>25.72585452287873</v>
+        <v>25.72585452287925</v>
       </c>
       <c r="L24" t="n">
-        <v>17.3023014387028</v>
+        <v>17.3023014387054</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04445654401037565</v>
+        <v>0.04445654401036553</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06099365720051639</v>
+        <v>0.0609936571997582</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003069999999922857</v>
+        <v>0.0002062000000009334</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.8666023887293</v>
       </c>
       <c r="F25" t="n">
-        <v>9.739541682610033</v>
+        <v>9.739541682607488</v>
       </c>
       <c r="G25" t="n">
-        <v>92.83795632732466</v>
+        <v>92.83795632732267</v>
       </c>
       <c r="H25" t="n">
-        <v>13.98111427792676</v>
+        <v>13.98111427792225</v>
       </c>
       <c r="I25" t="n">
         <v>70.67112797219256</v>
@@ -1743,16 +1743,16 @@
         <v>19.47923218856673</v>
       </c>
       <c r="K25" t="n">
-        <v>70.63616685454049</v>
+        <v>70.63616685453992</v>
       </c>
       <c r="L25" t="n">
-        <v>18.978088864425</v>
+        <v>18.97808886441937</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04023628346356243</v>
+        <v>0.04023628346359451</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1250740682536975</v>
+        <v>0.1250740682551568</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003130000000055588</v>
+        <v>0.0001864999999998673</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.7341575654701</v>
       </c>
       <c r="F26" t="n">
-        <v>9.928121907340048</v>
+        <v>9.928121907339424</v>
       </c>
       <c r="G26" t="n">
-        <v>172.5268449663972</v>
+        <v>172.5268449663976</v>
       </c>
       <c r="H26" t="n">
-        <v>11.31929101541238</v>
+        <v>11.3192910154115</v>
       </c>
       <c r="I26" t="n">
         <v>154.9934456744326</v>
@@ -1795,16 +1795,16 @@
         <v>6.82101990562933</v>
       </c>
       <c r="K26" t="n">
-        <v>154.8443167105447</v>
+        <v>154.8443167105451</v>
       </c>
       <c r="L26" t="n">
-        <v>6.801169510940965</v>
+        <v>6.801169510940499</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07185528301179274</v>
+        <v>0.07185528301179779</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06546297694906335</v>
+        <v>0.06546297694925088</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003330000000119071</v>
+        <v>0.0002688000000006241</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9543453820668</v>
       </c>
       <c r="F27" t="n">
-        <v>9.911445649115768</v>
+        <v>9.911445649108979</v>
       </c>
       <c r="G27" t="n">
-        <v>156.5996937496396</v>
+        <v>156.5996937496432</v>
       </c>
       <c r="H27" t="n">
-        <v>9.876345087195595</v>
+        <v>9.876345087186579</v>
       </c>
       <c r="I27" t="n">
         <v>121.4009088187373</v>
@@ -1847,16 +1847,16 @@
         <v>6.942709063967283</v>
       </c>
       <c r="K27" t="n">
-        <v>121.3931430589469</v>
+        <v>121.3931430589483</v>
       </c>
       <c r="L27" t="n">
-        <v>6.876016626339888</v>
+        <v>6.876016626334158</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04455684932780749</v>
+        <v>0.04455684932786393</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04629762710417637</v>
+        <v>0.04629762710736927</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003015000000061718</v>
+        <v>0.0001834999999985598</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.960801357668</v>
       </c>
       <c r="F28" t="n">
-        <v>9.915660140305881</v>
+        <v>9.915660140305535</v>
       </c>
       <c r="G28" t="n">
-        <v>55.32245230481772</v>
+        <v>55.32245230481703</v>
       </c>
       <c r="H28" t="n">
-        <v>9.149790277708469</v>
+        <v>9.149790277708114</v>
       </c>
       <c r="I28" t="n">
         <v>36.9783150738388</v>
@@ -1899,16 +1899,16 @@
         <v>17.11232764246076</v>
       </c>
       <c r="K28" t="n">
-        <v>36.96000385868275</v>
+        <v>36.96000385868257</v>
       </c>
       <c r="L28" t="n">
-        <v>16.95289594448476</v>
+        <v>16.95289594448412</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03926177570825262</v>
+        <v>0.03926177570825571</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04520115782435051</v>
+        <v>0.04520115782457614</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0002414000000001693</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.7428789169535</v>
       </c>
       <c r="F29" t="n">
-        <v>9.881260696131115</v>
+        <v>9.881260696130449</v>
       </c>
       <c r="G29" t="n">
-        <v>76.29409692891876</v>
+        <v>76.29409692891811</v>
       </c>
       <c r="H29" t="n">
-        <v>12.77972189275408</v>
+        <v>12.779721892753</v>
       </c>
       <c r="I29" t="n">
         <v>55.80674075854401</v>
@@ -1951,16 +1951,16 @@
         <v>19.44632462639266</v>
       </c>
       <c r="K29" t="n">
-        <v>55.78101350609254</v>
+        <v>55.78101350609234</v>
       </c>
       <c r="L29" t="n">
-        <v>19.37985361091357</v>
+        <v>19.37985361091204</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04661349281317706</v>
+        <v>0.04661349281318675</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02144579492701051</v>
+        <v>0.02144579492699653</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003828999999768712</v>
+        <v>0.0002224999999995703</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.910733524426</v>
       </c>
       <c r="F30" t="n">
-        <v>9.970045812116943</v>
+        <v>9.970045812123569</v>
       </c>
       <c r="G30" t="n">
-        <v>131.0530609499572</v>
+        <v>131.053060949958</v>
       </c>
       <c r="H30" t="n">
-        <v>9.724397016229323</v>
+        <v>9.724397016238152</v>
       </c>
       <c r="I30" t="n">
         <v>91.80924814573706</v>
@@ -2003,16 +2003,16 @@
         <v>9.961999912823932</v>
       </c>
       <c r="K30" t="n">
-        <v>91.78490769839432</v>
+        <v>91.78490769839554</v>
       </c>
       <c r="L30" t="n">
-        <v>9.959574330796338</v>
+        <v>9.959574330804216</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03980222425286162</v>
+        <v>0.039802224252806</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01341712934827855</v>
+        <v>0.01341712934436076</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002917000000195458</v>
+        <v>0.0003820999999994967</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.08349642526091273</v>
       </c>
       <c r="F31" t="n">
-        <v>9.781357779701384</v>
+        <v>9.78135777969309</v>
       </c>
       <c r="G31" t="n">
-        <v>156.0726737692668</v>
+        <v>156.072673769279</v>
       </c>
       <c r="H31" t="n">
-        <v>6.198940533087652</v>
+        <v>6.198940533079623</v>
       </c>
       <c r="I31" t="n">
         <v>85.08185965409687</v>
@@ -2055,16 +2055,16 @@
         <v>4.383667298314077</v>
       </c>
       <c r="K31" t="n">
-        <v>85.0279366279606</v>
+        <v>85.02793662795595</v>
       </c>
       <c r="L31" t="n">
-        <v>4.217560312590254</v>
+        <v>4.217560312584907</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04188553113159493</v>
+        <v>0.04188553113170726</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1771893915992043</v>
+        <v>0.177189391605833</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003073999999969601</v>
+        <v>0.0002312999999993792</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.2528105329552826</v>
       </c>
       <c r="F32" t="n">
-        <v>9.5634767017728</v>
+        <v>9.563476701775045</v>
       </c>
       <c r="G32" t="n">
-        <v>116.4663118230477</v>
+        <v>116.4663118230489</v>
       </c>
       <c r="H32" t="n">
-        <v>6.990152075294796</v>
+        <v>6.990152075297268</v>
       </c>
       <c r="I32" t="n">
         <v>69.94009040741105</v>
@@ -2107,16 +2107,16 @@
         <v>9.94082687493656</v>
       </c>
       <c r="K32" t="n">
-        <v>69.80186671751461</v>
+        <v>69.80186671751568</v>
       </c>
       <c r="L32" t="n">
-        <v>9.293216906440581</v>
+        <v>9.293216906443273</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04475796468346539</v>
+        <v>0.04475796468344541</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3473301157508424</v>
+        <v>0.347330115749335</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003237999999896601</v>
+        <v>0.0002401000000009645</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.08295144285031669</v>
       </c>
       <c r="F33" t="n">
-        <v>9.754936228528019</v>
+        <v>9.754936228526038</v>
       </c>
       <c r="G33" t="n">
-        <v>51.1884782013254</v>
+        <v>51.18847820132329</v>
       </c>
       <c r="H33" t="n">
-        <v>14.03410326036412</v>
+        <v>14.03410326036061</v>
       </c>
       <c r="I33" t="n">
         <v>39.0616009844012</v>
@@ -2159,16 +2159,16 @@
         <v>23.45979414801152</v>
       </c>
       <c r="K33" t="n">
-        <v>38.95905824982671</v>
+        <v>38.95905824982606</v>
       </c>
       <c r="L33" t="n">
-        <v>22.75449220439151</v>
+        <v>22.75449220438597</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04206118221003542</v>
+        <v>0.04206118221005591</v>
       </c>
       <c r="N33" t="n">
-        <v>0.16314390597555</v>
+        <v>0.1631439059767664</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002941000000191707</v>
+        <v>0.0001895000000011748</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.06977889019788849</v>
       </c>
       <c r="F34" t="n">
-        <v>9.65780725221919</v>
+        <v>9.657807252226288</v>
       </c>
       <c r="G34" t="n">
-        <v>155.1346875134094</v>
+        <v>155.134687513402</v>
       </c>
       <c r="H34" t="n">
-        <v>7.091652942774644</v>
+        <v>7.091652942782342</v>
       </c>
       <c r="I34" t="n">
         <v>98.12939238316436</v>
@@ -2211,16 +2211,16 @@
         <v>5.067646835573846</v>
       </c>
       <c r="K34" t="n">
-        <v>98.12516253696369</v>
+        <v>98.12516253696516</v>
       </c>
       <c r="L34" t="n">
-        <v>4.808822664722779</v>
+        <v>4.808822664727737</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04190276183073758</v>
+        <v>0.04190276183067508</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2269729715755724</v>
+        <v>0.2269729715708123</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003134000000102333</v>
+        <v>0.0001826000000004768</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.06377070102162243</v>
       </c>
       <c r="F35" t="n">
-        <v>9.901513045572166</v>
+        <v>9.901513045572571</v>
       </c>
       <c r="G35" t="n">
-        <v>44.72494225380256</v>
+        <v>44.72494225380269</v>
       </c>
       <c r="H35" t="n">
-        <v>8.169854063026571</v>
+        <v>8.16985406302731</v>
       </c>
       <c r="I35" t="n">
         <v>29.60621371940404</v>
@@ -2263,16 +2263,16 @@
         <v>16.7283342947574</v>
       </c>
       <c r="K35" t="n">
-        <v>29.55421561703376</v>
+        <v>29.55421561703395</v>
       </c>
       <c r="L35" t="n">
-        <v>16.38219306606031</v>
+        <v>16.38219306606151</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03895892996996732</v>
+        <v>0.03895892996996083</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1160684981656773</v>
+        <v>0.1160684981652844</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0005874000000005708</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="36">
@@ -2300,10 +2300,10 @@
         <v>359.9512329798744</v>
       </c>
       <c r="F36" t="n">
-        <v>9.929813739168651</v>
+        <v>9.929813739168626</v>
       </c>
       <c r="G36" t="n">
-        <v>6.939803110624703</v>
+        <v>6.939803110624677</v>
       </c>
       <c r="H36" t="n">
         <v>12.26241678942148</v>
@@ -2315,16 +2315,16 @@
         <v>22.30604591386155</v>
       </c>
       <c r="K36" t="n">
-        <v>7.638844471270196</v>
+        <v>7.638844471270184</v>
       </c>
       <c r="L36" t="n">
-        <v>22.11681361630709</v>
+        <v>22.11681361630708</v>
       </c>
       <c r="M36" t="n">
         <v>0.03874603629522357</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03547620456189387</v>
+        <v>0.03547620456188782</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003161999999861109</v>
+        <v>0.0001903999999992578</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.3779473420175646</v>
       </c>
       <c r="F37" t="n">
-        <v>9.755362969551371</v>
+        <v>9.755362969550983</v>
       </c>
       <c r="G37" t="n">
-        <v>83.54917471318336</v>
+        <v>83.54917471318264</v>
       </c>
       <c r="H37" t="n">
-        <v>6.185254872658916</v>
+        <v>6.185254872658558</v>
       </c>
       <c r="I37" t="n">
         <v>47.28302978168723</v>
@@ -2367,16 +2367,16 @@
         <v>12.44155687331505</v>
       </c>
       <c r="K37" t="n">
-        <v>47.20131878703144</v>
+        <v>47.20131878703121</v>
       </c>
       <c r="L37" t="n">
-        <v>11.73447304827265</v>
+        <v>11.7344730482721</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05421114174209333</v>
+        <v>0.05421114174209563</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3347668989713518</v>
+        <v>0.3347668989715989</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003402000000107819</v>
+        <v>0.0002387999999999835</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.8647173468491</v>
       </c>
       <c r="F38" t="n">
-        <v>9.913231315722633</v>
+        <v>9.913231315722269</v>
       </c>
       <c r="G38" t="n">
         <v>130.8993448757397</v>
       </c>
       <c r="H38" t="n">
-        <v>10.14202393708768</v>
+        <v>10.14202393708718</v>
       </c>
       <c r="I38" t="n">
         <v>93.75460165970797</v>
@@ -2419,16 +2419,16 @@
         <v>10.42956719317792</v>
       </c>
       <c r="K38" t="n">
-        <v>93.71362849183021</v>
+        <v>93.71362849183015</v>
       </c>
       <c r="L38" t="n">
-        <v>10.36796990561563</v>
+        <v>10.36796990561518</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04832987924814278</v>
+        <v>0.04832987924814661</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0448069770674486</v>
+        <v>0.04480697706765975</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003253000000142947</v>
+        <v>0.0002013999999999072</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01089272246750185</v>
       </c>
       <c r="F39" t="n">
-        <v>9.863456837074638</v>
+        <v>9.863456837061909</v>
       </c>
       <c r="G39" t="n">
-        <v>170.1842554017695</v>
+        <v>170.1842554017841</v>
       </c>
       <c r="H39" t="n">
-        <v>8.409193890862324</v>
+        <v>8.40919389084746</v>
       </c>
       <c r="I39" t="n">
         <v>132.8794796020886</v>
@@ -2471,16 +2471,16 @@
         <v>4.031761962137695</v>
       </c>
       <c r="K39" t="n">
-        <v>132.9870262815323</v>
+        <v>132.9870262815407</v>
       </c>
       <c r="L39" t="n">
-        <v>3.954366809784612</v>
+        <v>3.954366809777525</v>
       </c>
       <c r="M39" t="n">
-        <v>0.03930865360720406</v>
+        <v>0.03930865360734306</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1099265878588848</v>
+        <v>0.1099265878686124</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.000319000000018832</v>
+        <v>0.0004554999999992759</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.7982588703766</v>
       </c>
       <c r="F40" t="n">
-        <v>9.917827200754187</v>
+        <v>9.91782720075355</v>
       </c>
       <c r="G40" t="n">
-        <v>69.05438448567936</v>
+        <v>69.05438448567857</v>
       </c>
       <c r="H40" t="n">
-        <v>13.32805184492868</v>
+        <v>13.3280518449277</v>
       </c>
       <c r="I40" t="n">
         <v>51.01422188754402</v>
@@ -2523,16 +2523,16 @@
         <v>20.73148308181667</v>
       </c>
       <c r="K40" t="n">
-        <v>50.99198682612234</v>
+        <v>50.99198682612213</v>
       </c>
       <c r="L40" t="n">
-        <v>20.68357573704422</v>
+        <v>20.68357573704277</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04541910726475581</v>
+        <v>0.04541910726476232</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01669941389810311</v>
+        <v>0.01669941389811158</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002980000000150085</v>
+        <v>0.0002500000000011937</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.7190320867956</v>
       </c>
       <c r="F41" t="n">
-        <v>9.909249423813172</v>
+        <v>9.909249423818155</v>
       </c>
       <c r="G41" t="n">
-        <v>98.03969721820474</v>
+        <v>98.03969721820825</v>
       </c>
       <c r="H41" t="n">
-        <v>12.59170443820161</v>
+        <v>12.59170443820971</v>
       </c>
       <c r="I41" t="n">
         <v>72.19761816275663</v>
@@ -2575,16 +2575,16 @@
         <v>16.90630795593209</v>
       </c>
       <c r="K41" t="n">
-        <v>72.14938911201357</v>
+        <v>72.14938911201467</v>
       </c>
       <c r="L41" t="n">
-        <v>16.89682628218619</v>
+        <v>16.89682628219603</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05079701500447053</v>
+        <v>0.05079701500438444</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02636387714505397</v>
+        <v>0.0263638771453283</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003010000000074342</v>
+        <v>0.0002406000000014785</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1215095394422438</v>
       </c>
       <c r="F42" t="n">
-        <v>9.956144183554507</v>
+        <v>9.956144183554484</v>
       </c>
       <c r="G42" t="n">
-        <v>74.11809980214971</v>
+        <v>74.1180998021498</v>
       </c>
       <c r="H42" t="n">
-        <v>3.542017889992592</v>
+        <v>3.542017889992569</v>
       </c>
       <c r="I42" t="n">
         <v>31.92625942098924</v>
@@ -2627,16 +2627,16 @@
         <v>10.18120494273455</v>
       </c>
       <c r="K42" t="n">
-        <v>31.83753312763194</v>
+        <v>31.83753312763193</v>
       </c>
       <c r="L42" t="n">
-        <v>10.00875397868605</v>
+        <v>10.00875397868601</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04056733674672025</v>
+        <v>0.04056733674672053</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1522617266902757</v>
+        <v>0.1522617266903001</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003234999999790489</v>
+        <v>0.0003147999999999485</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.05414246461346952</v>
       </c>
       <c r="F43" t="n">
-        <v>9.948448025681781</v>
+        <v>9.948448025681978</v>
       </c>
       <c r="G43" t="n">
-        <v>45.44613465973073</v>
+        <v>45.44613465973115</v>
       </c>
       <c r="H43" t="n">
-        <v>3.429977009956419</v>
+        <v>3.429977009956582</v>
       </c>
       <c r="I43" t="n">
         <v>21.98281729864149</v>
@@ -2679,16 +2679,16 @@
         <v>11.20442922515501</v>
       </c>
       <c r="K43" t="n">
-        <v>21.9219200725479</v>
+        <v>21.92192007254808</v>
       </c>
       <c r="L43" t="n">
-        <v>11.01631421917907</v>
+        <v>11.01631421917942</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0402693477386584</v>
+        <v>0.04026934773865654</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1368681440665815</v>
+        <v>0.1368681440663754</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0002337000000007805</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9006571693977</v>
       </c>
       <c r="F44" t="n">
-        <v>9.845585863747967</v>
+        <v>9.845585863745722</v>
       </c>
       <c r="G44" t="n">
-        <v>67.25057374640303</v>
+        <v>67.25057374640096</v>
       </c>
       <c r="H44" t="n">
-        <v>14.19804201045837</v>
+        <v>14.19804201045434</v>
       </c>
       <c r="I44" t="n">
         <v>50.70287428680181</v>
@@ -2731,16 +2731,16 @@
         <v>22.14193003827787</v>
       </c>
       <c r="K44" t="n">
-        <v>50.67280252660202</v>
+        <v>50.67280252660141</v>
       </c>
       <c r="L44" t="n">
-        <v>21.80313712645378</v>
+        <v>21.8031371264479</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04061472232501975</v>
+        <v>0.04061472232505094</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0737142861904386</v>
+        <v>0.07371428619178159</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003047000000151456</v>
+        <v>0.0001896999999999593</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.948520014931</v>
       </c>
       <c r="F45" t="n">
-        <v>9.849463048967008</v>
+        <v>9.849463048967007</v>
       </c>
       <c r="G45" t="n">
-        <v>20.46088323441998</v>
+        <v>20.46088323441991</v>
       </c>
       <c r="H45" t="n">
-        <v>10.29008357716376</v>
+        <v>10.29008357716395</v>
       </c>
       <c r="I45" t="n">
         <v>16.3064939917049</v>
@@ -2783,16 +2783,16 @@
         <v>19.74929820405307</v>
       </c>
       <c r="K45" t="n">
-        <v>16.24373822231363</v>
+        <v>16.24373822231364</v>
       </c>
       <c r="L45" t="n">
-        <v>19.58395126854928</v>
+        <v>19.58395126854952</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03970141631545917</v>
+        <v>0.03970141631545838</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04040480707056826</v>
+        <v>0.04040480707049642</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.001456399999995028</v>
+        <v>0.0003113999999992956</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.1501229434511689</v>
       </c>
       <c r="F46" t="n">
-        <v>9.899638903435667</v>
+        <v>9.899638903435921</v>
       </c>
       <c r="G46" t="n">
-        <v>151.7756900597278</v>
+        <v>151.775690059728</v>
       </c>
       <c r="H46" t="n">
-        <v>4.188506517777798</v>
+        <v>4.188506517778003</v>
       </c>
       <c r="I46" t="n">
         <v>51.49320715697708</v>
@@ -2835,16 +2835,16 @@
         <v>4.733318900759217</v>
       </c>
       <c r="K46" t="n">
-        <v>51.38021897998714</v>
+        <v>51.38021897998765</v>
       </c>
       <c r="L46" t="n">
-        <v>4.573642784351095</v>
+        <v>4.573642784351192</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04314177939821796</v>
+        <v>0.04314177939821143</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1626174534364185</v>
+        <v>0.162617453436141</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003229000000146698</v>
+        <v>0.0002226000000007389</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9947250454301</v>
       </c>
       <c r="F47" t="n">
-        <v>9.97272399481448</v>
+        <v>9.972723994813373</v>
       </c>
       <c r="G47" t="n">
-        <v>178.0500442458962</v>
+        <v>178.0500442458974</v>
       </c>
       <c r="H47" t="n">
-        <v>9.56190417341192</v>
+        <v>9.561904173410547</v>
       </c>
       <c r="I47" t="n">
         <v>159.1796698056864</v>
@@ -2887,16 +2887,16 @@
         <v>4.410985878453859</v>
       </c>
       <c r="K47" t="n">
-        <v>159.2214591405746</v>
+        <v>159.2214591405757</v>
       </c>
       <c r="L47" t="n">
-        <v>4.397284601796805</v>
+        <v>4.397284601796203</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03788917551115406</v>
+        <v>0.03788917551116409</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02482647947713299</v>
+        <v>0.02482647947804018</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003077999999732128</v>
+        <v>0.0001972000000005636</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8830248320259</v>
       </c>
       <c r="F48" t="n">
-        <v>9.963984938760849</v>
+        <v>9.963984938752814</v>
       </c>
       <c r="G48" t="n">
-        <v>140.925177112154</v>
+        <v>140.9251771121549</v>
       </c>
       <c r="H48" t="n">
-        <v>10.59456071823259</v>
+        <v>10.59456071822124</v>
       </c>
       <c r="I48" t="n">
         <v>105.4244541290951</v>
@@ -2939,16 +2939,16 @@
         <v>9.516228537064677</v>
       </c>
       <c r="K48" t="n">
-        <v>105.3884889588603</v>
+        <v>105.3884889588602</v>
       </c>
       <c r="L48" t="n">
-        <v>9.504607396280491</v>
+        <v>9.504607396271444</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04471895150023384</v>
+        <v>0.04471895150030723</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02066257490403454</v>
+        <v>0.02066257490830747</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003089999999872362</v>
+        <v>0.000627200000000272</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.1696018951532245</v>
       </c>
       <c r="F49" t="n">
-        <v>10.00472700097765</v>
+        <v>10.00472700097761</v>
       </c>
       <c r="G49" t="n">
-        <v>20.38401311077043</v>
+        <v>20.38401311077034</v>
       </c>
       <c r="H49" t="n">
-        <v>14.13119309164703</v>
+        <v>14.13119309164726</v>
       </c>
       <c r="I49" t="n">
         <v>17.03401812828383</v>
@@ -2994,13 +2994,13 @@
         <v>16.97283165727318</v>
       </c>
       <c r="L49" t="n">
-        <v>24.34421890065431</v>
+        <v>24.34421890065455</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04152457850462942</v>
+        <v>0.04152457850462883</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1561089455395167</v>
+        <v>0.1561089455394647</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003397999999776857</v>
+        <v>0.0002949999999994901</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.1987262639856959</v>
       </c>
       <c r="F50" t="n">
-        <v>10.23030031935912</v>
+        <v>10.23030031935905</v>
       </c>
       <c r="G50" t="n">
-        <v>2.804572094797924</v>
+        <v>2.804572094797822</v>
       </c>
       <c r="H50" t="n">
-        <v>12.82364256656891</v>
+        <v>12.82364256656874</v>
       </c>
       <c r="I50" t="n">
         <v>4.979091423193565</v>
@@ -3043,16 +3043,16 @@
         <v>23.88762442334499</v>
       </c>
       <c r="K50" t="n">
-        <v>4.871475400777225</v>
+        <v>4.871475400777187</v>
       </c>
       <c r="L50" t="n">
-        <v>23.06714124565278</v>
+        <v>23.06714124565251</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04441835848830175</v>
+        <v>0.04441835848830177</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2524697474657863</v>
+        <v>0.2524697474658468</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002939000000026226</v>
+        <v>0.0002502999999993705</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.2086318156413209</v>
       </c>
       <c r="F51" t="n">
-        <v>9.8902626806657</v>
+        <v>9.890262680665847</v>
       </c>
       <c r="G51" t="n">
-        <v>54.52665269021109</v>
+        <v>54.52665269021045</v>
       </c>
       <c r="H51" t="n">
-        <v>5.642981379172793</v>
+        <v>5.642981379173124</v>
       </c>
       <c r="I51" t="n">
         <v>31.07252442683621</v>
@@ -3095,16 +3095,16 @@
         <v>13.5120365339658</v>
       </c>
       <c r="K51" t="n">
-        <v>30.96005516035889</v>
+        <v>30.96005516035896</v>
       </c>
       <c r="L51" t="n">
-        <v>13.06495991511101</v>
+        <v>13.06495991511153</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04041037098287963</v>
+        <v>0.0404103709828779</v>
       </c>
       <c r="N51" t="n">
-        <v>0.226948457019228</v>
+        <v>0.2269484570189952</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.0002382000000000772</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.3120704217367269</v>
       </c>
       <c r="F52" t="n">
-        <v>9.7727523216822</v>
+        <v>9.77275232168264</v>
       </c>
       <c r="G52" t="n">
-        <v>90.12983825578404</v>
+        <v>90.12983825578526</v>
       </c>
       <c r="H52" t="n">
-        <v>5.344908835119962</v>
+        <v>5.3449088351203</v>
       </c>
       <c r="I52" t="n">
         <v>47.03792036458195</v>
@@ -3147,16 +3147,16 @@
         <v>11.00547523311644</v>
       </c>
       <c r="K52" t="n">
-        <v>46.92156074657927</v>
+        <v>46.92156074657959</v>
       </c>
       <c r="L52" t="n">
-        <v>10.45640002001579</v>
+        <v>10.45640002001629</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04812933446334134</v>
+        <v>0.04812933446333793</v>
       </c>
       <c r="N52" t="n">
-        <v>0.3106398796027465</v>
+        <v>0.3106398796024746</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003528000000017073</v>
+        <v>0.0001946999999997701</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.05810063466972768</v>
       </c>
       <c r="F53" t="n">
-        <v>9.916932148086046</v>
+        <v>9.916932148086536</v>
       </c>
       <c r="G53" t="n">
-        <v>122.0020193502861</v>
+        <v>122.0020193502842</v>
       </c>
       <c r="H53" t="n">
-        <v>3.466819244588353</v>
+        <v>3.466819244588701</v>
       </c>
       <c r="I53" t="n">
         <v>42.84508415968962</v>
@@ -3199,16 +3199,16 @@
         <v>7.034854823508725</v>
       </c>
       <c r="K53" t="n">
-        <v>42.73717981994349</v>
+        <v>42.73717981994392</v>
       </c>
       <c r="L53" t="n">
-        <v>6.938130498832312</v>
+        <v>6.93813049883289</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03954282803392602</v>
+        <v>0.03954282803392037</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1084409786100528</v>
+        <v>0.1084409786095079</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003074999999910233</v>
+        <v>0.0001894000000000062</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8961048318772</v>
       </c>
       <c r="F54" t="n">
-        <v>10.04092832770463</v>
+        <v>10.04092832770446</v>
       </c>
       <c r="G54" t="n">
-        <v>146.8219183021186</v>
+        <v>146.8219183021191</v>
       </c>
       <c r="H54" t="n">
-        <v>3.327272270861822</v>
+        <v>3.327272270861725</v>
       </c>
       <c r="I54" t="n">
         <v>39.20823517402567</v>
@@ -3251,16 +3251,16 @@
         <v>5.169813417634993</v>
       </c>
       <c r="K54" t="n">
-        <v>39.26261105931012</v>
+        <v>39.26261105930991</v>
       </c>
       <c r="L54" t="n">
-        <v>5.273134338116686</v>
+        <v>5.273134338116556</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03760867652419861</v>
+        <v>0.0376086765241995</v>
       </c>
       <c r="N54" t="n">
-        <v>0.09080642879309929</v>
+        <v>0.09080642879291309</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0004597000000217122</v>
+        <v>0.0002515000000009593</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9588270266299</v>
       </c>
       <c r="F55" t="n">
-        <v>9.801472252577051</v>
+        <v>9.801472252583153</v>
       </c>
       <c r="G55" t="n">
-        <v>152.4241826002292</v>
+        <v>152.4241826002264</v>
       </c>
       <c r="H55" t="n">
-        <v>9.482132193775749</v>
+        <v>9.482132193783755</v>
       </c>
       <c r="I55" t="n">
         <v>114.2699214848488</v>
@@ -3303,16 +3303,16 @@
         <v>7.220398177179498</v>
       </c>
       <c r="K55" t="n">
-        <v>114.2794280147288</v>
+        <v>114.2794280147283</v>
       </c>
       <c r="L55" t="n">
-        <v>7.054784228530785</v>
+        <v>7.054784228536175</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04614012626687138</v>
+        <v>0.04614012626681444</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1059128846263322</v>
+        <v>0.1059128846228274</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003067000000100961</v>
+        <v>0.0001981999999998152</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.3704421489225846</v>
       </c>
       <c r="F56" t="n">
-        <v>9.72855616999146</v>
+        <v>9.72855616999057</v>
       </c>
       <c r="G56" t="n">
-        <v>76.26301029035112</v>
+        <v>76.26301029035008</v>
       </c>
       <c r="H56" t="n">
-        <v>6.790034243751553</v>
+        <v>6.790034243750581</v>
       </c>
       <c r="I56" t="n">
         <v>45.4456541921149</v>
@@ -3355,16 +3355,16 @@
         <v>13.64739445873363</v>
       </c>
       <c r="K56" t="n">
-        <v>45.31948982389829</v>
+        <v>45.31948982389786</v>
       </c>
       <c r="L56" t="n">
-        <v>12.86614599641998</v>
+        <v>12.86614599641842</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04749912525863235</v>
+        <v>0.04749912525863714</v>
       </c>
       <c r="N56" t="n">
-        <v>0.335951321214598</v>
+        <v>0.3359513212151985</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003314999999872725</v>
+        <v>0.0001998000000007494</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.3247462229268011</v>
       </c>
       <c r="F57" t="n">
-        <v>10.14911725339486</v>
+        <v>10.14911725339459</v>
       </c>
       <c r="G57" t="n">
-        <v>16.76910573854954</v>
+        <v>16.76910573854925</v>
       </c>
       <c r="H57" t="n">
-        <v>13.77724233966779</v>
+        <v>13.77724233966718</v>
       </c>
       <c r="I57" t="n">
         <v>14.44966940927695</v>
@@ -3407,16 +3407,16 @@
         <v>25.01968713371055</v>
       </c>
       <c r="K57" t="n">
-        <v>14.39888301119562</v>
+        <v>14.39888301119551</v>
       </c>
       <c r="L57" t="n">
-        <v>24.11988696450214</v>
+        <v>24.11988696450114</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04648675010555545</v>
+        <v>0.04648675010555581</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2233942439995669</v>
+        <v>0.22339424399976</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0001897999999993516</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.207528635100521</v>
       </c>
       <c r="F58" t="n">
-        <v>9.49377762084552</v>
+        <v>9.493777620844964</v>
       </c>
       <c r="G58" t="n">
-        <v>178.7401059488577</v>
+        <v>178.740105948859</v>
       </c>
       <c r="H58" t="n">
-        <v>6.50354410251849</v>
+        <v>6.503544102517946</v>
       </c>
       <c r="I58" t="n">
         <v>122.3917356254008</v>
@@ -3459,16 +3459,16 @@
         <v>1.88002910171164</v>
       </c>
       <c r="K58" t="n">
-        <v>123.9024616661098</v>
+        <v>123.9024616661107</v>
       </c>
       <c r="L58" t="n">
-        <v>1.658381553516514</v>
+        <v>1.65838155351631</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09244759532791572</v>
+        <v>0.09244759532797728</v>
       </c>
       <c r="N58" t="n">
-        <v>0.791433769458698</v>
+        <v>0.7914337694593239</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002910999999983233</v>
+        <v>0.0001850000000001017</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.02621043146937827</v>
       </c>
       <c r="F59" t="n">
-        <v>9.911444831093089</v>
+        <v>9.911444831093217</v>
       </c>
       <c r="G59" t="n">
-        <v>15.42500345476813</v>
+        <v>15.42500345476853</v>
       </c>
       <c r="H59" t="n">
-        <v>5.739439223162582</v>
+        <v>5.73943922316245</v>
       </c>
       <c r="I59" t="n">
         <v>12.23519148406908</v>
@@ -3511,16 +3511,16 @@
         <v>14.37002887945796</v>
       </c>
       <c r="K59" t="n">
-        <v>12.17701913939085</v>
+        <v>12.17701913939089</v>
       </c>
       <c r="L59" t="n">
-        <v>14.25505339490246</v>
+        <v>14.25505339490243</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04406095756202201</v>
+        <v>0.044060957562022</v>
       </c>
       <c r="N59" t="n">
-        <v>0.04672400846550992</v>
+        <v>0.04672400846554739</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003727999999796339</v>
+        <v>0.0002417999999995146</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.1520372292349083</v>
       </c>
       <c r="F60" t="n">
-        <v>9.769247972129245</v>
+        <v>9.769247972127969</v>
       </c>
       <c r="G60" t="n">
-        <v>65.53724977344518</v>
+        <v>65.53724977344338</v>
       </c>
       <c r="H60" t="n">
-        <v>8.049112659049801</v>
+        <v>8.049112659048301</v>
       </c>
       <c r="I60" t="n">
         <v>41.96631688030001</v>
@@ -3563,16 +3563,16 @@
         <v>15.51473424919647</v>
       </c>
       <c r="K60" t="n">
-        <v>41.84745366046373</v>
+        <v>41.84745366046314</v>
       </c>
       <c r="L60" t="n">
-        <v>14.97150800513215</v>
+        <v>14.97150800512967</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03939256695755027</v>
+        <v>0.03939256695755689</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2011662299288888</v>
+        <v>0.2011662299297939</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0002051999999999055</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.3338567042789481</v>
       </c>
       <c r="F61" t="n">
-        <v>9.642518539367831</v>
+        <v>9.642518539369199</v>
       </c>
       <c r="G61" t="n">
-        <v>169.4200626181077</v>
+        <v>169.4200626181033</v>
       </c>
       <c r="H61" t="n">
-        <v>4.681049858474223</v>
+        <v>4.681049858475219</v>
       </c>
       <c r="I61" t="n">
         <v>56.76408976169788</v>
@@ -3615,16 +3615,16 @@
         <v>3.059300117780022</v>
       </c>
       <c r="K61" t="n">
-        <v>56.32946515103912</v>
+        <v>56.32946515104197</v>
       </c>
       <c r="L61" t="n">
-        <v>2.71317250917995</v>
+        <v>2.713172509180645</v>
       </c>
       <c r="M61" t="n">
-        <v>0.05877435044247801</v>
+        <v>0.05877435044235858</v>
       </c>
       <c r="N61" t="n">
-        <v>0.4835650910713667</v>
+        <v>0.4835650910696515</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002961000000141212</v>
+        <v>0.0001859999999993533</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.1843541986426154</v>
       </c>
       <c r="F62" t="n">
-        <v>9.981932025574064</v>
+        <v>9.981932025573817</v>
       </c>
       <c r="G62" t="n">
-        <v>54.99971911824391</v>
+        <v>54.99971911824438</v>
       </c>
       <c r="H62" t="n">
-        <v>4.992428214575418</v>
+        <v>4.992428214575042</v>
       </c>
       <c r="I62" t="n">
         <v>29.53509225686502</v>
@@ -3667,16 +3667,16 @@
         <v>12.72106643331113</v>
       </c>
       <c r="K62" t="n">
-        <v>29.49464032326323</v>
+        <v>29.49464032326309</v>
       </c>
       <c r="L62" t="n">
-        <v>12.41011853367817</v>
+        <v>12.41011853367753</v>
       </c>
       <c r="M62" t="n">
-        <v>0.04675383598090147</v>
+        <v>0.0467538359809044</v>
       </c>
       <c r="N62" t="n">
-        <v>0.19155322345329</v>
+        <v>0.191553223453601</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000297399999993786</v>
+        <v>0.0001864000000004751</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.08629911031195799</v>
       </c>
       <c r="F63" t="n">
-        <v>9.879791860594567</v>
+        <v>9.87979186059267</v>
       </c>
       <c r="G63" t="n">
-        <v>149.0615103479657</v>
+        <v>149.0615103479692</v>
       </c>
       <c r="H63" t="n">
-        <v>5.070061373905395</v>
+        <v>5.07006137390381</v>
       </c>
       <c r="I63" t="n">
         <v>64.68552660313826</v>
@@ -3719,16 +3719,16 @@
         <v>4.894765047516295</v>
       </c>
       <c r="K63" t="n">
-        <v>64.63361509611765</v>
+        <v>64.63361509611595</v>
       </c>
       <c r="L63" t="n">
-        <v>4.773491898699227</v>
+        <v>4.77349189869785</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0424780907252741</v>
+        <v>0.04247809072530514</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1219577733788327</v>
+        <v>0.1219577733805826</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003213999999900352</v>
+        <v>0.0001858999999999611</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.002465085260736356</v>
       </c>
       <c r="F64" t="n">
-        <v>10.02000695014807</v>
+        <v>10.02000695014784</v>
       </c>
       <c r="G64" t="n">
-        <v>6.044439481809495</v>
+        <v>6.044439481809278</v>
       </c>
       <c r="H64" t="n">
-        <v>8.758607546765099</v>
+        <v>8.758607546765289</v>
       </c>
       <c r="I64" t="n">
         <v>7.285415246674767</v>
@@ -3771,16 +3771,16 @@
         <v>18.11323190547886</v>
       </c>
       <c r="K64" t="n">
-        <v>7.269289829182303</v>
+        <v>7.269289829182252</v>
       </c>
       <c r="L64" t="n">
-        <v>18.0002200425659</v>
+        <v>18.00022004256591</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03598353340038318</v>
+        <v>0.03598353340038338</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0464134660182734</v>
+        <v>0.04641346601823092</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002896999999961736</v>
+        <v>0.000237600000000171</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.4277957307036171</v>
       </c>
       <c r="F65" t="n">
-        <v>9.553993300716414</v>
+        <v>9.553993300715891</v>
       </c>
       <c r="G65" t="n">
-        <v>100.5405490985282</v>
+        <v>100.5405490985276</v>
       </c>
       <c r="H65" t="n">
-        <v>7.027322260951156</v>
+        <v>7.027322260950593</v>
       </c>
       <c r="I65" t="n">
         <v>60.6583617383578</v>
@@ -3823,16 +3823,16 @@
         <v>11.86528034063046</v>
       </c>
       <c r="K65" t="n">
-        <v>60.49253050578388</v>
+        <v>60.49253050578362</v>
       </c>
       <c r="L65" t="n">
-        <v>10.95297057725357</v>
+        <v>10.95297057725285</v>
       </c>
       <c r="M65" t="n">
-        <v>0.05365534376083867</v>
+        <v>0.05365534376084243</v>
       </c>
       <c r="N65" t="n">
-        <v>0.4249613258465605</v>
+        <v>0.4249613258468997</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.7799354121537</v>
       </c>
       <c r="F66" t="n">
-        <v>9.93838629119543</v>
+        <v>9.938386291195156</v>
       </c>
       <c r="G66" t="n">
-        <v>67.81221981744872</v>
+        <v>67.81221981744832</v>
       </c>
       <c r="H66" t="n">
-        <v>9.932711957722589</v>
+        <v>9.932711957722249</v>
       </c>
       <c r="I66" t="n">
         <v>45.8459076388655</v>
@@ -3875,16 +3875,16 @@
         <v>16.86218162216168</v>
       </c>
       <c r="K66" t="n">
-        <v>45.82563754224057</v>
+        <v>45.82563754224047</v>
       </c>
       <c r="L66" t="n">
-        <v>16.96674298627599</v>
+        <v>16.96674298627545</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0500547817931719</v>
+        <v>0.05005478179317598</v>
       </c>
       <c r="N66" t="n">
-        <v>0.05855728232877337</v>
+        <v>0.05855728232867221</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003213999999900352</v>
+        <v>0.0001917000000002389</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.1667329646265426</v>
       </c>
       <c r="F67" t="n">
-        <v>9.997016555150362</v>
+        <v>9.997016555150323</v>
       </c>
       <c r="G67" t="n">
-        <v>40.06818440525178</v>
+        <v>40.06818440525165</v>
       </c>
       <c r="H67" t="n">
-        <v>3.151578830734899</v>
+        <v>3.151578830734872</v>
       </c>
       <c r="I67" t="n">
         <v>19.57687427078943</v>
@@ -3927,16 +3927,16 @@
         <v>11.16212898988536</v>
       </c>
       <c r="K67" t="n">
-        <v>19.47741976720503</v>
+        <v>19.477419767205</v>
       </c>
       <c r="L67" t="n">
-        <v>10.89850517110775</v>
+        <v>10.89850517110768</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04183583979292307</v>
+        <v>0.0418358397929235</v>
       </c>
       <c r="N67" t="n">
-        <v>0.248792460182014</v>
+        <v>0.2487924601820474</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003051999999854615</v>
+        <v>0.0001872999999985581</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.7168771271872</v>
       </c>
       <c r="F68" t="n">
-        <v>9.787949924308696</v>
+        <v>9.787949924308863</v>
       </c>
       <c r="G68" t="n">
-        <v>26.88954020639028</v>
+        <v>26.88954020639115</v>
       </c>
       <c r="H68" t="n">
-        <v>4.940674499805722</v>
+        <v>4.940674499805638</v>
       </c>
       <c r="I68" t="n">
         <v>16.96964631110587</v>
@@ -3979,16 +3979,16 @@
         <v>12.83113260813786</v>
       </c>
       <c r="K68" t="n">
-        <v>16.9762155714566</v>
+        <v>16.97621557145671</v>
       </c>
       <c r="L68" t="n">
-        <v>13.02688820991647</v>
+        <v>13.02688820991652</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04657724270497241</v>
+        <v>0.04657724270497155</v>
       </c>
       <c r="N68" t="n">
-        <v>0.23171138412495</v>
+        <v>0.2317113841249109</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002948000000060347</v>
+        <v>0.0002145000000002284</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.7742955695559</v>
       </c>
       <c r="F69" t="n">
-        <v>9.870212414896592</v>
+        <v>9.870212414895754</v>
       </c>
       <c r="G69" t="n">
-        <v>97.86599819588922</v>
+        <v>97.86599819588855</v>
       </c>
       <c r="H69" t="n">
-        <v>13.23007622517884</v>
+        <v>13.23007622517744</v>
       </c>
       <c r="I69" t="n">
         <v>73.30159050095429</v>
@@ -4031,16 +4031,16 @@
         <v>17.71985515776622</v>
       </c>
       <c r="K69" t="n">
-        <v>73.22738953881711</v>
+        <v>73.22738953881694</v>
       </c>
       <c r="L69" t="n">
-        <v>17.60734309280391</v>
+        <v>17.60734309280222</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04740115020631119</v>
+        <v>0.04740115020632314</v>
       </c>
       <c r="N69" t="n">
-        <v>0.05313133752416452</v>
+        <v>0.05313133752464626</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0008974999999793454</v>
+        <v>0.0002331999999984902</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.1888952728743358</v>
       </c>
       <c r="F70" t="n">
-        <v>9.984147016974271</v>
+        <v>9.984147016974127</v>
       </c>
       <c r="G70" t="n">
-        <v>48.18239438205163</v>
+        <v>48.18239438205082</v>
       </c>
       <c r="H70" t="n">
-        <v>3.217125809299768</v>
+        <v>3.217125809299715</v>
       </c>
       <c r="I70" t="n">
         <v>22.43075918953557</v>
@@ -4083,16 +4083,16 @@
         <v>11.12306944814092</v>
       </c>
       <c r="K70" t="n">
-        <v>22.31528877451327</v>
+        <v>22.31528877451316</v>
       </c>
       <c r="L70" t="n">
-        <v>10.74662895623713</v>
+        <v>10.74662895623696</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0445968703717541</v>
+        <v>0.04459687037175512</v>
       </c>
       <c r="N70" t="n">
-        <v>0.3379866113070003</v>
+        <v>0.3379866113070698</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000314800000012383</v>
+        <v>0.0001995000000007963</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.8168985802904</v>
       </c>
       <c r="F71" t="n">
-        <v>9.777978951238001</v>
+        <v>9.777978951237438</v>
       </c>
       <c r="G71" t="n">
-        <v>52.8882849341117</v>
+        <v>52.8882849341107</v>
       </c>
       <c r="H71" t="n">
-        <v>12.61655158382957</v>
+        <v>12.61655158382892</v>
       </c>
       <c r="I71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="J71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="K71" t="n">
-        <v>39.03393062646086</v>
+        <v>39.03393062646062</v>
       </c>
       <c r="L71" t="n">
-        <v>20.97976889606251</v>
+        <v>20.97976889606139</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04613680729225149</v>
+        <v>0.04613680729225567</v>
       </c>
       <c r="N71" t="n">
-        <v>0.06628518012753234</v>
+        <v>0.06628518012782833</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002917999999851872</v>
+        <v>0.0001936000000011262</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.8298005183396</v>
       </c>
       <c r="F72" t="n">
-        <v>9.947148174198134</v>
+        <v>9.947148174201212</v>
       </c>
       <c r="G72" t="n">
-        <v>166.7873924054087</v>
+        <v>166.787392405407</v>
       </c>
       <c r="H72" t="n">
-        <v>13.4064525041516</v>
+        <v>13.40645250415657</v>
       </c>
       <c r="I72" t="n">
         <v>150.0337683635548</v>
@@ -4187,16 +4187,16 @@
         <v>9.651912212970135</v>
       </c>
       <c r="K72" t="n">
-        <v>149.9586589218223</v>
+        <v>149.9586589218208</v>
       </c>
       <c r="L72" t="n">
-        <v>9.623979616260341</v>
+        <v>9.623979616263513</v>
       </c>
       <c r="M72" t="n">
-        <v>0.05286485443353059</v>
+        <v>0.05286485443348367</v>
       </c>
       <c r="N72" t="n">
-        <v>0.03920917396561704</v>
+        <v>0.03920917396455809</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0001860999999987456</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.08612062994596124</v>
       </c>
       <c r="F73" t="n">
-        <v>9.974466675351387</v>
+        <v>9.974466675351247</v>
       </c>
       <c r="G73" t="n">
-        <v>33.51949234347941</v>
+        <v>33.51949234347898</v>
       </c>
       <c r="H73" t="n">
-        <v>7.395059027379412</v>
+        <v>7.395059027379363</v>
       </c>
       <c r="I73" t="n">
         <v>22.46395608561936</v>
@@ -4239,16 +4239,16 @@
         <v>16.27104575612665</v>
       </c>
       <c r="K73" t="n">
-        <v>22.41243672434615</v>
+        <v>22.41243672434605</v>
       </c>
       <c r="L73" t="n">
-        <v>15.96211349365793</v>
+        <v>15.96211349365775</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03987078521070285</v>
+        <v>0.03987078521070363</v>
       </c>
       <c r="N73" t="n">
-        <v>0.1273175674820433</v>
+        <v>0.1273175674820877</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003361999999924592</v>
+        <v>0.0001870999999997736</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9362909001869</v>
       </c>
       <c r="F74" t="n">
-        <v>9.879795123154169</v>
+        <v>9.879795123154107</v>
       </c>
       <c r="G74" t="n">
-        <v>19.07128612177252</v>
+        <v>19.07128612177245</v>
       </c>
       <c r="H74" t="n">
-        <v>11.23633415980014</v>
+        <v>11.23633415979996</v>
       </c>
       <c r="I74" t="n">
         <v>15.57133329969279</v>
@@ -4291,16 +4291,16 @@
         <v>20.85419847183129</v>
       </c>
       <c r="K74" t="n">
-        <v>15.54450624415385</v>
+        <v>15.54450624415381</v>
       </c>
       <c r="L74" t="n">
-        <v>20.76653653898088</v>
+        <v>20.7665365389806</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04093033322719793</v>
+        <v>0.04093033322719886</v>
       </c>
       <c r="N74" t="n">
-        <v>0.02265343993218909</v>
+        <v>0.02265343993217936</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002956000000153836</v>
+        <v>0.0002328000000009212</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.884637389738</v>
       </c>
       <c r="F75" t="n">
-        <v>10.04329350740628</v>
+        <v>10.04329350740831</v>
       </c>
       <c r="G75" t="n">
-        <v>115.5008360776963</v>
+        <v>115.5008360776976</v>
       </c>
       <c r="H75" t="n">
-        <v>9.568167248592513</v>
+        <v>9.568167248595117</v>
       </c>
       <c r="I75" t="n">
         <v>77.81913838663891</v>
@@ -4343,16 +4343,16 @@
         <v>11.66724248977646</v>
       </c>
       <c r="K75" t="n">
-        <v>77.82654205257512</v>
+        <v>77.82654205257577</v>
       </c>
       <c r="L75" t="n">
-        <v>11.77831556189335</v>
+        <v>11.7783155618961</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03806236579802505</v>
+        <v>0.03806236579800703</v>
       </c>
       <c r="N75" t="n">
-        <v>0.04996472399926077</v>
+        <v>0.04996472400047101</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003043000000104712</v>
+        <v>0.0001824999999993082</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8783309012385</v>
       </c>
       <c r="F76" t="n">
-        <v>9.858966079322425</v>
+        <v>9.858966079321753</v>
       </c>
       <c r="G76" t="n">
-        <v>36.19795518559021</v>
+        <v>36.19795518558949</v>
       </c>
       <c r="H76" t="n">
-        <v>12.35262185831771</v>
+        <v>12.35262185831652</v>
       </c>
       <c r="I76" t="n">
         <v>27.32317301036183</v>
@@ -4395,16 +4395,16 @@
         <v>21.80818795837916</v>
       </c>
       <c r="K76" t="n">
-        <v>27.27997278177533</v>
+        <v>27.27997278177507</v>
       </c>
       <c r="L76" t="n">
-        <v>21.60786543464293</v>
+        <v>21.60786543464094</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03797701128289378</v>
+        <v>0.03797701128290293</v>
       </c>
       <c r="N76" t="n">
-        <v>0.04354606249455323</v>
+        <v>0.04354606249502881</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003303000000016709</v>
+        <v>0.0001852000000006626</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.1419004267952209</v>
       </c>
       <c r="F77" t="n">
-        <v>9.935994741489296</v>
+        <v>9.935994741489148</v>
       </c>
       <c r="G77" t="n">
-        <v>104.0463886751409</v>
+        <v>104.0463886751418</v>
       </c>
       <c r="H77" t="n">
-        <v>3.67064398691352</v>
+        <v>3.670643986913388</v>
       </c>
       <c r="I77" t="n">
         <v>41.23088095385175</v>
@@ -4447,16 +4447,16 @@
         <v>8.517806771190989</v>
       </c>
       <c r="K77" t="n">
-        <v>41.18029422930391</v>
+        <v>41.18029422930381</v>
       </c>
       <c r="L77" t="n">
-        <v>8.304792653619442</v>
+        <v>8.304792653619199</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04178206696981432</v>
+        <v>0.04178206696981641</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1749895017859031</v>
+        <v>0.1749895017860895</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002945999999894866</v>
+        <v>0.0001875000000008953</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.8119397378562</v>
       </c>
       <c r="F78" t="n">
-        <v>9.858679246656459</v>
+        <v>9.858679246657175</v>
       </c>
       <c r="G78" t="n">
-        <v>55.70551883563854</v>
+        <v>55.70551883563923</v>
       </c>
       <c r="H78" t="n">
-        <v>12.79712149923264</v>
+        <v>12.79712149923388</v>
       </c>
       <c r="I78" t="n">
         <v>41.02759868558736</v>
@@ -4499,16 +4499,16 @@
         <v>21.21280471567252</v>
       </c>
       <c r="K78" t="n">
-        <v>41.01592522831571</v>
+        <v>41.01592522831593</v>
       </c>
       <c r="L78" t="n">
-        <v>21.06598044729605</v>
+        <v>21.06598044729798</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04150234454999907</v>
+        <v>0.04150234454998802</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02653829191183548</v>
+        <v>0.02653829191136941</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003090000000156579</v>
+        <v>0.0001859999999993533</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9551110295849</v>
       </c>
       <c r="F79" t="n">
-        <v>9.922818955191987</v>
+        <v>9.922818955187836</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4184996256992</v>
+        <v>165.4184996257019</v>
       </c>
       <c r="H79" t="n">
-        <v>10.60706805652556</v>
+        <v>10.60706805651986</v>
       </c>
       <c r="I79" t="n">
         <v>138.9401716507728</v>
@@ -4551,16 +4551,16 @@
         <v>6.69919649565565</v>
       </c>
       <c r="K79" t="n">
-        <v>138.9332998990386</v>
+        <v>138.9332998990405</v>
       </c>
       <c r="L79" t="n">
-        <v>6.647763609353095</v>
+        <v>6.647763609349828</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0409196506780365</v>
+        <v>0.04091965067806121</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03822418494747298</v>
+        <v>0.03822418494906549</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003286999999829732</v>
+        <v>0.0002455000000001206</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9755907725551</v>
       </c>
       <c r="F80" t="n">
-        <v>10.00703435361007</v>
+        <v>10.00703435361024</v>
       </c>
       <c r="G80" t="n">
-        <v>8.690763157756068</v>
+        <v>8.690763157756283</v>
       </c>
       <c r="H80" t="n">
-        <v>10.95233030591553</v>
+        <v>10.95233030591557</v>
       </c>
       <c r="I80" t="n">
         <v>8.792537788842502</v>
@@ -4603,16 +4603,16 @@
         <v>20.88161751407274</v>
       </c>
       <c r="K80" t="n">
-        <v>8.790937422095396</v>
+        <v>8.790937422095473</v>
       </c>
       <c r="L80" t="n">
-        <v>20.62485424515897</v>
+        <v>20.62485424515919</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04077648601109424</v>
+        <v>0.04077648601109339</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07040614698001606</v>
+        <v>0.07040614697997426</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003329999999834854</v>
+        <v>0.0001876000000002875</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.6632717641540169</v>
       </c>
       <c r="F81" t="n">
-        <v>9.373638481831559</v>
+        <v>9.373638481832577</v>
       </c>
       <c r="G81" t="n">
-        <v>90.84392552205891</v>
+        <v>90.84392552206049</v>
       </c>
       <c r="H81" t="n">
-        <v>7.486585488439881</v>
+        <v>7.486585488441015</v>
       </c>
       <c r="I81" t="n">
         <v>57.39789300421757</v>
@@ -4655,16 +4655,16 @@
         <v>13.66352932901044</v>
       </c>
       <c r="K81" t="n">
-        <v>57.1566724914147</v>
+        <v>57.15667249141523</v>
       </c>
       <c r="L81" t="n">
-        <v>12.21425883365992</v>
+        <v>12.21425883366147</v>
       </c>
       <c r="M81" t="n">
-        <v>0.07614607027818146</v>
+        <v>0.07614607027817613</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5830900422560163</v>
+        <v>0.583090042255402</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002847000000087974</v>
+        <v>0.0001820999999999628</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.6200294127704</v>
       </c>
       <c r="F82" t="n">
-        <v>10.1224409833975</v>
+        <v>10.12244098339773</v>
       </c>
       <c r="G82" t="n">
-        <v>93.649473806364</v>
+        <v>93.6494738063641</v>
       </c>
       <c r="H82" t="n">
-        <v>11.77461080816338</v>
+        <v>11.77461080816374</v>
       </c>
       <c r="I82" t="n">
         <v>66.48783954982605</v>
@@ -4707,16 +4707,16 @@
         <v>16.15039452812126</v>
       </c>
       <c r="K82" t="n">
-        <v>66.51425574234132</v>
+        <v>66.51425574234135</v>
       </c>
       <c r="L82" t="n">
-        <v>16.57749770285588</v>
+        <v>16.57749770285634</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05016218231739072</v>
+        <v>0.05016218231738648</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1418295740523169</v>
+        <v>0.1418295740524412</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003183999999976095</v>
+        <v>0.0001809999999995426</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.2719800684437436</v>
       </c>
       <c r="F83" t="n">
-        <v>9.931321118301801</v>
+        <v>9.931321118301465</v>
       </c>
       <c r="G83" t="n">
-        <v>64.71876997008522</v>
+        <v>64.71876997008481</v>
       </c>
       <c r="H83" t="n">
-        <v>6.737065892996109</v>
+        <v>6.737065892995736</v>
       </c>
       <c r="I83" t="n">
         <v>38.4159118793041</v>
@@ -4759,16 +4759,16 @@
         <v>14.1881020213233</v>
       </c>
       <c r="K83" t="n">
-        <v>38.37912716523665</v>
+        <v>38.37912716523647</v>
       </c>
       <c r="L83" t="n">
-        <v>13.73535833879939</v>
+        <v>13.73535833879875</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04451437187486604</v>
+        <v>0.04451437187486821</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2054732339920252</v>
+        <v>0.2054732339922641</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0002416000000007301</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.8318699194488</v>
       </c>
       <c r="F84" t="n">
-        <v>9.866631634818347</v>
+        <v>9.866631634820076</v>
       </c>
       <c r="G84" t="n">
-        <v>49.15869731302897</v>
+        <v>49.15869731303072</v>
       </c>
       <c r="H84" t="n">
-        <v>10.72430295452261</v>
+        <v>10.72430295452537</v>
       </c>
       <c r="I84" t="n">
         <v>34.81590641774923</v>
@@ -4811,16 +4811,16 @@
         <v>19.11454519061216</v>
       </c>
       <c r="K84" t="n">
-        <v>34.77291648550435</v>
+        <v>34.77291648550499</v>
       </c>
       <c r="L84" t="n">
-        <v>19.07214928380895</v>
+        <v>19.07214928381348</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04527545711700066</v>
+        <v>0.04527545711697514</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03653438361398879</v>
+        <v>0.03653438361403308</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003075999999850865</v>
+        <v>0.0001934999999999576</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.8301374227926</v>
       </c>
       <c r="F85" t="n">
-        <v>9.825011417632869</v>
+        <v>9.825011417632199</v>
       </c>
       <c r="G85" t="n">
-        <v>45.90062190612942</v>
+        <v>45.90062190612802</v>
       </c>
       <c r="H85" t="n">
-        <v>11.18350235810472</v>
+        <v>11.18350235810414</v>
       </c>
       <c r="I85" t="n">
         <v>33.13287081288786</v>
@@ -4863,16 +4863,16 @@
         <v>19.91760304290331</v>
       </c>
       <c r="K85" t="n">
-        <v>33.0792403104724</v>
+        <v>33.07924031047209</v>
       </c>
       <c r="L85" t="n">
-        <v>19.74873568551447</v>
+        <v>19.74873568551329</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04269939475954181</v>
+        <v>0.04269939475954682</v>
       </c>
       <c r="N85" t="n">
-        <v>0.04161036163133662</v>
+        <v>0.04161036163168628</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002909000000101969</v>
+        <v>0.0001864999999998673</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.02632244039511911</v>
       </c>
       <c r="F86" t="n">
-        <v>9.937339968085869</v>
+        <v>9.937339968085908</v>
       </c>
       <c r="G86" t="n">
-        <v>8.094181835808802</v>
+        <v>8.094181835808817</v>
       </c>
       <c r="H86" t="n">
-        <v>7.449353704820014</v>
+        <v>7.449353704819901</v>
       </c>
       <c r="I86" t="n">
         <v>8.615529210004841</v>
@@ -4915,16 +4915,16 @@
         <v>16.40699998673912</v>
       </c>
       <c r="K86" t="n">
-        <v>8.558471922546804</v>
+        <v>8.558471922546792</v>
       </c>
       <c r="L86" t="n">
-        <v>16.35324951345925</v>
+        <v>16.35324951345915</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04511349707196302</v>
+        <v>0.04511349707196317</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02671948191418811</v>
+        <v>0.02671948191416003</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000378100000006043</v>
+        <v>0.0001861999999999142</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9646298557842</v>
       </c>
       <c r="F87" t="n">
-        <v>9.891630796494971</v>
+        <v>9.891630796498438</v>
       </c>
       <c r="G87" t="n">
-        <v>111.4841549875922</v>
+        <v>111.4841549875948</v>
       </c>
       <c r="H87" t="n">
-        <v>8.991560506135386</v>
+        <v>8.991560506139713</v>
       </c>
       <c r="I87" t="n">
         <v>73.53144854422638</v>
@@ -4967,16 +4967,16 @@
         <v>11.81175051977503</v>
       </c>
       <c r="K87" t="n">
-        <v>73.47833530951024</v>
+        <v>73.47833530951148</v>
       </c>
       <c r="L87" t="n">
-        <v>11.68706019244857</v>
+        <v>11.68706019245334</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04188506150168664</v>
+        <v>0.04188506150165373</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06725886580140497</v>
+        <v>0.06725886579916754</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003130000000055588</v>
+        <v>0.0001807000000013659</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1192571437934559</v>
       </c>
       <c r="F88" t="n">
-        <v>9.980671560491698</v>
+        <v>9.980671560491867</v>
       </c>
       <c r="G88" t="n">
-        <v>36.86991993801207</v>
+        <v>36.86991993801227</v>
       </c>
       <c r="H88" t="n">
-        <v>5.219413816441934</v>
+        <v>5.219413816442157</v>
       </c>
       <c r="I88" t="n">
         <v>21.84848718910419</v>
@@ -5019,16 +5019,16 @@
         <v>13.65786460130007</v>
       </c>
       <c r="K88" t="n">
-        <v>21.79837120063519</v>
+        <v>21.79837120063531</v>
       </c>
       <c r="L88" t="n">
-        <v>13.32791756889506</v>
+        <v>13.32791756889547</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04203870544385645</v>
+        <v>0.04203870544385478</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1839110628798884</v>
+        <v>0.1839110628797135</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.000299300000023095</v>
+        <v>0.0002465999999987645</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9255248958294</v>
       </c>
       <c r="F89" t="n">
-        <v>9.405196232881007</v>
+        <v>9.405196232868056</v>
       </c>
       <c r="G89" t="n">
-        <v>117.8330943814618</v>
+        <v>117.8330943814563</v>
       </c>
       <c r="H89" t="n">
-        <v>13.4119808067912</v>
+        <v>13.41198080676791</v>
       </c>
       <c r="I89" t="n">
         <v>92.7668218217183</v>
@@ -5071,16 +5071,16 @@
         <v>16.49115940110462</v>
       </c>
       <c r="K89" t="n">
-        <v>92.69923104468133</v>
+        <v>92.69923104467999</v>
       </c>
       <c r="L89" t="n">
-        <v>15.40776543094225</v>
+        <v>15.40776543091826</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04623053147653212</v>
+        <v>0.04623053147673597</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3147545765163033</v>
+        <v>0.3147545765232285</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003067000000100961</v>
+        <v>0.0001843000000008033</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9786231391697</v>
       </c>
       <c r="F90" t="n">
-        <v>9.931573717477512</v>
+        <v>9.931573717478486</v>
       </c>
       <c r="G90" t="n">
-        <v>116.4704137526913</v>
+        <v>116.4704137526915</v>
       </c>
       <c r="H90" t="n">
-        <v>9.005495122245499</v>
+        <v>9.005495122246773</v>
       </c>
       <c r="I90" t="n">
         <v>77.06502614626034</v>
@@ -5123,16 +5123,16 @@
         <v>11.20723949811577</v>
       </c>
       <c r="K90" t="n">
-        <v>77.02200008006153</v>
+        <v>77.02200008006173</v>
       </c>
       <c r="L90" t="n">
-        <v>11.1245922641544</v>
+        <v>11.12459226415578</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04069901402245635</v>
+        <v>0.04069901402244686</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04736188491267032</v>
+        <v>0.04736188491205298</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.000309799999996585</v>
+        <v>0.0001828000000010377</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.3387460053094221</v>
       </c>
       <c r="F91" t="n">
-        <v>9.761691099436197</v>
+        <v>9.761691099438332</v>
       </c>
       <c r="G91" t="n">
-        <v>91.07026774163914</v>
+        <v>91.0702677416425</v>
       </c>
       <c r="H91" t="n">
-        <v>5.636956968048789</v>
+        <v>5.636956968050709</v>
       </c>
       <c r="I91" t="n">
         <v>48.84601329812367</v>
@@ -5175,16 +5175,16 @@
         <v>11.23051578470421</v>
       </c>
       <c r="K91" t="n">
-        <v>48.70708373732287</v>
+        <v>48.70708373732422</v>
       </c>
       <c r="L91" t="n">
-        <v>10.636029702418</v>
+        <v>10.63602970242085</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04914451661254732</v>
+        <v>0.04914451661252838</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3299195776420931</v>
+        <v>0.3299195776406292</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002829000000019732</v>
+        <v>0.0001844999999995878</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.04489733363986508</v>
       </c>
       <c r="F92" t="n">
-        <v>9.921248554630967</v>
+        <v>9.921248554631218</v>
       </c>
       <c r="G92" t="n">
-        <v>27.28795454425401</v>
+        <v>27.28795454425492</v>
       </c>
       <c r="H92" t="n">
-        <v>4.777598440421649</v>
+        <v>4.777598440421766</v>
       </c>
       <c r="I92" t="n">
         <v>17.15395993153109</v>
@@ -5227,16 +5227,16 @@
         <v>13.17470023696191</v>
       </c>
       <c r="K92" t="n">
-        <v>17.06587230780343</v>
+        <v>17.06587230780361</v>
       </c>
       <c r="L92" t="n">
-        <v>12.97112816684845</v>
+        <v>12.97112816684881</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0434804143705232</v>
+        <v>0.04348041437052117</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1128971864405283</v>
+        <v>0.1128971864403572</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003051999999854615</v>
+        <v>0.0002087999999993428</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1212242035469481</v>
       </c>
       <c r="F93" t="n">
-        <v>9.935671090069725</v>
+        <v>9.935671090070475</v>
       </c>
       <c r="G93" t="n">
-        <v>36.30851290893337</v>
+        <v>36.30851290893489</v>
       </c>
       <c r="H93" t="n">
-        <v>6.653872972403058</v>
+        <v>6.653872972403813</v>
       </c>
       <c r="I93" t="n">
         <v>23.34892049549794</v>
@@ -5279,16 +5279,16 @@
         <v>15.37253312835461</v>
       </c>
       <c r="K93" t="n">
-        <v>23.28663211035525</v>
+        <v>23.2866321103557</v>
       </c>
       <c r="L93" t="n">
-        <v>14.97338994016535</v>
+        <v>14.97338994016688</v>
       </c>
       <c r="M93" t="n">
-        <v>0.03958536851793493</v>
+        <v>0.03958536851793037</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1679594042741744</v>
+        <v>0.1679594042736626</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003184000000260312</v>
+        <v>0.000240299999999749</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9539401516435</v>
       </c>
       <c r="F94" t="n">
-        <v>9.977454486570684</v>
+        <v>9.977454486575935</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4311148303152</v>
+        <v>159.431114830313</v>
       </c>
       <c r="H94" t="n">
-        <v>12.43354669223022</v>
+        <v>12.43354669223835</v>
       </c>
       <c r="I94" t="n">
         <v>135.8914103371119</v>
@@ -5331,16 +5331,16 @@
         <v>9.221215218233809</v>
       </c>
       <c r="K94" t="n">
-        <v>135.8963764166094</v>
+        <v>135.8963764166076</v>
       </c>
       <c r="L94" t="n">
-        <v>9.202299015132519</v>
+        <v>9.202299015137918</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03700227393280103</v>
+        <v>0.03700227393275902</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01124876829660119</v>
+        <v>0.01124876829361408</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002932999999814001</v>
+        <v>0.0001993999999996277</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.6739603839313</v>
       </c>
       <c r="F95" t="n">
-        <v>10.12271883510171</v>
+        <v>10.12271883509539</v>
       </c>
       <c r="G95" t="n">
-        <v>108.7328148845239</v>
+        <v>108.73281488452</v>
       </c>
       <c r="H95" t="n">
-        <v>11.22156855580135</v>
+        <v>11.22156855579219</v>
       </c>
       <c r="I95" t="n">
         <v>77.08991880558148</v>
@@ -5383,16 +5383,16 @@
         <v>13.86645042167153</v>
       </c>
       <c r="K95" t="n">
-        <v>77.07663668191957</v>
+        <v>77.07663668191807</v>
       </c>
       <c r="L95" t="n">
-        <v>14.22573558258483</v>
+        <v>14.22573558257456</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04537669602562439</v>
+        <v>0.0453766960257146</v>
       </c>
       <c r="N95" t="n">
-        <v>0.132863492080118</v>
+        <v>0.1328634920772543</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003106000000059339</v>
+        <v>0.0001824000000016923</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.8513093568973</v>
       </c>
       <c r="F96" t="n">
-        <v>9.997991702741876</v>
+        <v>9.997991702762189</v>
       </c>
       <c r="G96" t="n">
-        <v>129.2008636792619</v>
+        <v>129.2008636792655</v>
       </c>
       <c r="H96" t="n">
-        <v>10.3352262516005</v>
+        <v>10.33522625162872</v>
       </c>
       <c r="I96" t="n">
         <v>92.4963307677606</v>
@@ -5435,16 +5435,16 @@
         <v>10.70698393477249</v>
       </c>
       <c r="K96" t="n">
-        <v>92.43382519139101</v>
+        <v>92.43382519139426</v>
       </c>
       <c r="L96" t="n">
-        <v>10.765172668073</v>
+        <v>10.76517266809874</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04325708550536567</v>
+        <v>0.04325708550515107</v>
       </c>
       <c r="N96" t="n">
-        <v>0.04370324466642142</v>
+        <v>0.04370324467638656</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003216000000065833</v>
+        <v>0.0001937999999999107</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1328577799104965</v>
       </c>
       <c r="F97" t="n">
-        <v>9.976647354153947</v>
+        <v>9.976647354153837</v>
       </c>
       <c r="G97" t="n">
-        <v>41.50833087168862</v>
+        <v>41.50833087168881</v>
       </c>
       <c r="H97" t="n">
-        <v>5.069408322493589</v>
+        <v>5.069408322493368</v>
       </c>
       <c r="I97" t="n">
         <v>23.74542453059524</v>
@@ -5487,16 +5487,16 @@
         <v>13.28409758323217</v>
       </c>
       <c r="K97" t="n">
-        <v>23.67780537631729</v>
+        <v>23.6778053763172</v>
       </c>
       <c r="L97" t="n">
-        <v>13.01108276311848</v>
+        <v>13.01108276311812</v>
       </c>
       <c r="M97" t="n">
-        <v>0.03962574558352055</v>
+        <v>0.03962574558352151</v>
       </c>
       <c r="N97" t="n">
-        <v>0.162710093537619</v>
+        <v>0.1627100935377951</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002624000000004401</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9860304450468</v>
       </c>
       <c r="F98" t="n">
-        <v>9.850289082353978</v>
+        <v>9.850289082353477</v>
       </c>
       <c r="G98" t="n">
-        <v>38.49423220124465</v>
+        <v>38.49423220124429</v>
       </c>
       <c r="H98" t="n">
-        <v>13.65432801103167</v>
+        <v>13.65432801103053</v>
       </c>
       <c r="I98" t="n">
         <v>29.58813609103335</v>
@@ -5539,16 +5539,16 @@
         <v>23.48744640074011</v>
       </c>
       <c r="K98" t="n">
-        <v>29.53987532253003</v>
+        <v>29.53987532252987</v>
       </c>
       <c r="L98" t="n">
-        <v>23.05499376951884</v>
+        <v>23.05499376951708</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0398531848692359</v>
+        <v>0.03985318486924364</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09314880010126979</v>
+        <v>0.09314880010165089</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003196999999772743</v>
+        <v>0.0001940999999998638</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.3502375502584012</v>
       </c>
       <c r="F99" t="n">
-        <v>9.806872050201683</v>
+        <v>9.806872050208398</v>
       </c>
       <c r="G99" t="n">
-        <v>151.0081063425341</v>
+        <v>151.0081063425326</v>
       </c>
       <c r="H99" t="n">
-        <v>14.22569369776615</v>
+        <v>14.22569369777804</v>
       </c>
       <c r="I99" t="n">
         <v>129.036147186146</v>
@@ -5591,16 +5591,16 @@
         <v>12.59476915243944</v>
       </c>
       <c r="K99" t="n">
-        <v>129.1628274356574</v>
+        <v>129.1628274356559</v>
       </c>
       <c r="L99" t="n">
-        <v>12.25812714994006</v>
+        <v>12.25812714994927</v>
       </c>
       <c r="M99" t="n">
-        <v>0.06984022374483694</v>
+        <v>0.06984022374475775</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1563905831694338</v>
+        <v>0.1563905831657706</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002870000000143591</v>
+        <v>0.0001783999999993569</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9052565837468</v>
       </c>
       <c r="F100" t="n">
-        <v>9.904928988187821</v>
+        <v>9.904928988189909</v>
       </c>
       <c r="G100" t="n">
-        <v>131.6219569410958</v>
+        <v>131.621956941096</v>
       </c>
       <c r="H100" t="n">
-        <v>9.707944567409564</v>
+        <v>9.707944567412358</v>
       </c>
       <c r="I100" t="n">
         <v>92.65513206400841</v>
@@ -5643,16 +5643,16 @@
         <v>9.952434050938109</v>
       </c>
       <c r="K100" t="n">
-        <v>92.60786733394208</v>
+        <v>92.60786733394245</v>
       </c>
       <c r="L100" t="n">
-        <v>9.872834769439857</v>
+        <v>9.87283476944233</v>
       </c>
       <c r="M100" t="n">
-        <v>0.04710883921592755</v>
+        <v>0.04710883921590367</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0548663501925635</v>
+        <v>0.0548663501913383</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003269999999986339</v>
+        <v>0.0001894000000000062</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0284717685403868</v>
       </c>
       <c r="F101" t="n">
-        <v>9.781344125702185</v>
+        <v>9.781344125697252</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0309640617675</v>
+        <v>121.030964061766</v>
       </c>
       <c r="H101" t="n">
-        <v>8.569852754704874</v>
+        <v>8.569852754698717</v>
       </c>
       <c r="I101" t="n">
         <v>79.48494662297404</v>
@@ -5695,16 +5695,16 @@
         <v>10.4553174329922</v>
       </c>
       <c r="K101" t="n">
-        <v>79.43013183670044</v>
+        <v>79.43013183669898</v>
       </c>
       <c r="L101" t="n">
-        <v>10.15980011179692</v>
+        <v>10.15980011179067</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03979086519695602</v>
+        <v>0.03979086519699814</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1423670249163729</v>
+        <v>0.1423670249194381</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.000307500000019445</v>
+        <v>0.0001844000000001955</v>
       </c>
     </row>
   </sheetData>
